--- a/SampleExcel.xlsx
+++ b/SampleExcel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Number of Threads</t>
   </si>
@@ -62,6 +62,30 @@
   <si>
     <t xml:space="preserve">OMP- Guided -O3 Speedup</t>
   </si>
+  <si>
+    <t xml:space="preserve">0 serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 guided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 dynamic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 guided</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +160,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="2" tint="-0.099978637043366805"/>
+        <bgColor theme="2" tint="-0.099978637043366805"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,10 +285,18 @@
     <xf fontId="2" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -318,14 +356,6 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>NOT REAL VALUES</a:t>
-            </a:r>
             <a:endParaRPr/>
           </a:p>
         </c:rich>
@@ -2768,8 +2798,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="2566034" y="6646544"/>
-      <a:ext cx="9363074" cy="4665344"/>
+      <a:off x="613408" y="6456043"/>
+      <a:ext cx="14178915" cy="6031230"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -3426,16 +3456,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>280034</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93344</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3808</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>70484</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3445,8 +3475,8 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2566034" y="6646544"/>
-        <a:ext cx="9363074" cy="4665344"/>
+        <a:off x="613408" y="6456043"/>
+        <a:ext cx="14178915" cy="6031230"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3952,7 +3982,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
@@ -3964,16 +3994,17 @@
     <col bestFit="1" customWidth="1" min="4" max="5" style="1" width="7.44140625"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="12"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="18.6640625"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="12.140625"/>
     <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="18"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" style="1" width="14.21875"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" style="1" width="15.23046875"/>
     <col bestFit="1" customWidth="1" min="11" max="11" style="2" width="20.77734375"/>
     <col bestFit="1" customWidth="1" min="12" max="12" style="1" width="13.5546875"/>
     <col bestFit="1" customWidth="1" min="13" max="13" style="2" width="20.109375"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" style="1" width="13.44140625"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" style="1" width="14.28125"/>
     <col bestFit="1" customWidth="1" min="15" max="15" style="2" width="20.33203125"/>
     <col bestFit="1" customWidth="1" min="16" max="16" style="1" width="13.109375"/>
     <col bestFit="1" customWidth="1" min="17" max="17" style="1" width="19.6640625"/>
+    <col bestFit="1" min="19" max="19" width="45.47265625"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.6" customHeight="1">
@@ -4025,6 +4056,18 @@
       <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" ht="12.6" customHeight="1">
       <c r="B2" s="13">
@@ -4035,59 +4078,98 @@
         <v>1</v>
       </c>
       <c r="D2" s="15">
-        <v>82</v>
+        <v>9.0166540000000008</v>
       </c>
       <c r="E2" s="16">
-        <v>13</v>
+        <v>5.1441999999999997</v>
       </c>
       <c r="F2" s="17">
-        <f t="shared" ref="F2:F41" si="1">D2/B2/0.8</f>
-        <v>102.5</v>
+        <v>9.0456190000000003</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" ref="G2:G41" si="2">D2/F2</f>
-        <v>0.80000000000000004</v>
+        <f t="shared" ref="G2:G41" si="1">D2/F2</f>
+        <v>0.99679789741310132</v>
       </c>
       <c r="H2" s="18">
-        <f t="shared" ref="H2:H41" si="3">E2/B2/0.65</f>
-        <v>20</v>
+        <v>5.1789699999999996</v>
       </c>
       <c r="I2" s="14">
-        <f t="shared" ref="I2:I41" si="4">E2/H2</f>
-        <v>0.65000000000000002</v>
+        <f t="shared" ref="I2:I41" si="2">E2/H2</f>
+        <v>0.99328630982608512</v>
       </c>
       <c r="J2" s="17">
-        <f t="shared" ref="J2:J41" si="5">F2/1.1</f>
-        <v>93.181818181818173</v>
+        <v>9.0225849999999994</v>
       </c>
       <c r="K2" s="14">
-        <f t="shared" ref="K2:K41" si="6">D2/J2</f>
-        <v>0.88000000000000012</v>
+        <f t="shared" ref="K2:K41" si="3">D2/J2</f>
+        <v>0.99934264958434882</v>
       </c>
       <c r="L2" s="18">
-        <f t="shared" ref="L2:L41" si="7">H2/1.1</f>
-        <v>18.18181818181818</v>
+        <v>5.1442059999999996</v>
       </c>
       <c r="M2" s="14">
-        <f t="shared" ref="M2:M41" si="8">E2/L2</f>
-        <v>0.71500000000000008</v>
+        <f t="shared" ref="M2:M41" si="4">E2/L2</f>
+        <v>0.9999988336392438</v>
       </c>
       <c r="N2" s="17">
-        <f t="shared" ref="N2:N41" si="9">F2/0.95</f>
-        <v>107.89473684210527</v>
+        <v>9.0424699999999998</v>
       </c>
       <c r="O2" s="14">
-        <f t="shared" ref="O2:O41" si="10">D2/N2</f>
-        <v>0.7599999999999999</v>
+        <f t="shared" ref="O2:O41" si="5">D2/N2</f>
+        <v>0.9971450278519034</v>
       </c>
       <c r="P2" s="18">
-        <f t="shared" ref="P2:P41" si="11">H2/0.95</f>
-        <v>21.05263157894737</v>
+        <v>5.1498780000000002</v>
       </c>
       <c r="Q2" s="14">
-        <f t="shared" ref="Q2:Q41" si="12">E2/P2</f>
-        <v>0.61749999999999994</v>
-      </c>
+        <f t="shared" ref="Q2:Q41" si="6">E2/P2</f>
+        <v>0.99889744960948579</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2">
+        <v>9.0166540000000008</v>
+      </c>
+      <c r="Z2">
+        <v>9.0456190000000003</v>
+      </c>
+      <c r="AA2">
+        <v>9.0225849999999994</v>
+      </c>
+      <c r="AB2">
+        <v>9.0424699999999998</v>
+      </c>
+      <c r="AC2"/>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
     </row>
     <row r="3" ht="12.6" customHeight="1">
       <c r="B3" s="19">
@@ -4098,59 +4180,98 @@
         <v>2</v>
       </c>
       <c r="D3" s="15">
-        <v>82</v>
+        <v>9.0738780000000006</v>
       </c>
       <c r="E3" s="16">
-        <v>13</v>
+        <v>5.1458360000000001</v>
       </c>
       <c r="F3" s="17">
+        <v>6.2778280000000004</v>
+      </c>
+      <c r="G3" s="20">
         <f t="shared" si="1"/>
-        <v>51.25</v>
-      </c>
-      <c r="G3" s="20">
+        <v>1.4453849324957613</v>
+      </c>
+      <c r="H3" s="18">
+        <v>3.7455759999999998</v>
+      </c>
+      <c r="I3" s="20">
         <f t="shared" si="2"/>
-        <v>1.6000000000000001</v>
-      </c>
-      <c r="H3" s="18">
+        <v>1.3738437025440147</v>
+      </c>
+      <c r="J3" s="17">
+        <v>6.7013619999999996</v>
+      </c>
+      <c r="K3" s="14">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I3" s="20">
+        <v>1.3540348961897597</v>
+      </c>
+      <c r="L3" s="18">
+        <v>3.9741070000000001</v>
+      </c>
+      <c r="M3" s="14">
         <f t="shared" si="4"/>
-        <v>1.3</v>
-      </c>
-      <c r="J3" s="17">
+        <v>1.2948408283923911</v>
+      </c>
+      <c r="N3" s="17">
+        <v>6.5617169999999998</v>
+      </c>
+      <c r="O3" s="14">
         <f t="shared" si="5"/>
-        <v>46.590909090909086</v>
-      </c>
-      <c r="K3" s="14">
+        <v>1.3828511653276119</v>
+      </c>
+      <c r="P3" s="18">
+        <v>3.7923640000000001</v>
+      </c>
+      <c r="Q3" s="14">
         <f t="shared" si="6"/>
-        <v>1.7600000000000002</v>
-      </c>
-      <c r="L3" s="18">
-        <f t="shared" si="7"/>
-        <v>9.0909090909090899</v>
-      </c>
-      <c r="M3" s="14">
-        <f t="shared" si="8"/>
-        <v>1.4300000000000002</v>
-      </c>
-      <c r="N3" s="17">
-        <f t="shared" si="9"/>
-        <v>53.947368421052637</v>
-      </c>
-      <c r="O3" s="14">
-        <f t="shared" si="10"/>
-        <v>1.5199999999999998</v>
-      </c>
-      <c r="P3" s="18">
-        <f t="shared" si="11"/>
-        <v>10.526315789473685</v>
-      </c>
-      <c r="Q3" s="14">
-        <f t="shared" si="12"/>
-        <v>1.2349999999999999</v>
-      </c>
+        <v>1.3568940112288799</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3">
+        <v>9.0738780000000006</v>
+      </c>
+      <c r="Z3">
+        <v>6.2778280000000004</v>
+      </c>
+      <c r="AA3">
+        <v>6.7013619999999996</v>
+      </c>
+      <c r="AB3">
+        <v>6.5617169999999998</v>
+      </c>
+      <c r="AC3"/>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
     </row>
     <row r="4" ht="12.6" customHeight="1">
       <c r="B4" s="19">
@@ -4161,59 +4282,98 @@
         <v>3</v>
       </c>
       <c r="D4" s="15">
-        <v>82</v>
+        <v>9.045318</v>
       </c>
       <c r="E4" s="16">
-        <v>13</v>
+        <v>5.1648829999999997</v>
       </c>
       <c r="F4" s="17">
+        <v>5.0571190000000001</v>
+      </c>
+      <c r="G4" s="20">
         <f t="shared" si="1"/>
-        <v>34.166666666666664</v>
-      </c>
-      <c r="G4" s="20">
+        <v>1.7886306412801438</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2.8672309999999999</v>
+      </c>
+      <c r="I4" s="20">
         <f t="shared" si="2"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="H4" s="18">
+        <v>1.8013487577387381</v>
+      </c>
+      <c r="J4" s="17">
+        <v>4.5853789999999996</v>
+      </c>
+      <c r="K4" s="14">
         <f t="shared" si="3"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="I4" s="20">
+        <v>1.9726434826870365</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2.749012</v>
+      </c>
+      <c r="M4" s="14">
         <f t="shared" si="4"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="J4" s="17">
+        <v>1.8788142794574922</v>
+      </c>
+      <c r="N4" s="17">
+        <v>4.7329140000000001</v>
+      </c>
+      <c r="O4" s="14">
         <f t="shared" si="5"/>
-        <v>31.060606060606055</v>
-      </c>
-      <c r="K4" s="14">
+        <v>1.9111519879718921</v>
+      </c>
+      <c r="P4" s="18">
+        <v>2.9318960000000001</v>
+      </c>
+      <c r="Q4" s="14">
         <f t="shared" si="6"/>
-        <v>2.6400000000000006</v>
-      </c>
-      <c r="L4" s="18">
-        <f t="shared" si="7"/>
-        <v>6.0606060606060597</v>
-      </c>
-      <c r="M4" s="14">
-        <f t="shared" si="8"/>
-        <v>2.1450000000000005</v>
-      </c>
-      <c r="N4" s="17">
-        <f t="shared" si="9"/>
-        <v>35.964912280701753</v>
-      </c>
-      <c r="O4" s="14">
-        <f t="shared" si="10"/>
-        <v>2.2800000000000002</v>
-      </c>
-      <c r="P4" s="18">
-        <f t="shared" si="11"/>
-        <v>7.0175438596491224</v>
-      </c>
-      <c r="Q4" s="14">
-        <f t="shared" si="12"/>
-        <v>1.8525</v>
-      </c>
+        <v>1.7616187613748917</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4">
+        <v>9.045318</v>
+      </c>
+      <c r="Z4">
+        <v>5.0571190000000001</v>
+      </c>
+      <c r="AA4">
+        <v>4.5853789999999996</v>
+      </c>
+      <c r="AB4">
+        <v>4.7329140000000001</v>
+      </c>
+      <c r="AC4"/>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
     </row>
     <row r="5" ht="12.6" customHeight="1">
       <c r="B5" s="19">
@@ -4224,59 +4384,98 @@
         <v>4</v>
       </c>
       <c r="D5" s="15">
-        <v>82</v>
+        <v>9.0548230000000007</v>
       </c>
       <c r="E5" s="16">
-        <v>13</v>
+        <v>5.1693870000000004</v>
       </c>
       <c r="F5" s="17">
+        <v>3.6049129999999998</v>
+      </c>
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
-        <v>25.625</v>
-      </c>
-      <c r="G5" s="20">
+        <v>2.5118007008768313</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2.0777060000000001</v>
+      </c>
+      <c r="I5" s="20">
         <f t="shared" si="2"/>
-        <v>3.2000000000000002</v>
-      </c>
-      <c r="H5" s="18">
+        <v>2.4880262173762797</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3.3811249999999999</v>
+      </c>
+      <c r="K5" s="14">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I5" s="20">
+        <v>2.67805035306296</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1.744119</v>
+      </c>
+      <c r="M5" s="14">
         <f t="shared" si="4"/>
-        <v>2.6000000000000001</v>
-      </c>
-      <c r="J5" s="17">
+        <v>2.9638958121550196</v>
+      </c>
+      <c r="N5" s="17">
+        <v>3.3645179999999999</v>
+      </c>
+      <c r="O5" s="14">
         <f t="shared" si="5"/>
-        <v>23.295454545454543</v>
-      </c>
-      <c r="K5" s="14">
+        <v>2.691269001978887</v>
+      </c>
+      <c r="P5" s="18">
+        <v>1.754435</v>
+      </c>
+      <c r="Q5" s="14">
         <f t="shared" si="6"/>
-        <v>3.5200000000000005</v>
-      </c>
-      <c r="L5" s="18">
-        <f t="shared" si="7"/>
-        <v>4.545454545454545</v>
-      </c>
-      <c r="M5" s="14">
-        <f t="shared" si="8"/>
-        <v>2.8600000000000003</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="9"/>
-        <v>26.973684210526319</v>
-      </c>
-      <c r="O5" s="14">
-        <f t="shared" si="10"/>
-        <v>3.0399999999999996</v>
-      </c>
-      <c r="P5" s="18">
-        <f t="shared" si="11"/>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="Q5" s="14">
-        <f t="shared" si="12"/>
-        <v>2.4699999999999998</v>
-      </c>
+        <v>2.9464682362127981</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5">
+        <v>9.0548230000000007</v>
+      </c>
+      <c r="Z5">
+        <v>3.6049129999999998</v>
+      </c>
+      <c r="AA5">
+        <v>3.3811249999999999</v>
+      </c>
+      <c r="AB5">
+        <v>3.3645179999999999</v>
+      </c>
+      <c r="AC5"/>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+      <c r="BE5"/>
+      <c r="BF5"/>
+      <c r="BG5"/>
     </row>
     <row r="6" ht="12.6" customHeight="1">
       <c r="B6" s="19">
@@ -4287,59 +4486,98 @@
         <v>5</v>
       </c>
       <c r="D6" s="15">
-        <v>82</v>
+        <v>9.2037879999999994</v>
       </c>
       <c r="E6" s="16">
-        <v>13</v>
+        <v>5.165197</v>
       </c>
       <c r="F6" s="17">
+        <v>3.3836400000000002</v>
+      </c>
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
-        <v>20.499999999999996</v>
-      </c>
-      <c r="G6" s="20">
+        <v>2.7200848790060403</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1.7868740000000001</v>
+      </c>
+      <c r="I6" s="20">
         <f t="shared" si="2"/>
-        <v>4.0000000000000009</v>
-      </c>
-      <c r="H6" s="18">
+        <v>2.8906330272867589</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3.5435400000000001</v>
+      </c>
+      <c r="K6" s="14">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I6" s="20">
+        <v>2.5973427702241261</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1.8022180000000001</v>
+      </c>
+      <c r="M6" s="14">
         <f t="shared" si="4"/>
-        <v>3.25</v>
-      </c>
-      <c r="J6" s="17">
+        <v>2.866022312506034</v>
+      </c>
+      <c r="N6" s="17">
+        <v>3.112965</v>
+      </c>
+      <c r="O6" s="14">
         <f t="shared" si="5"/>
-        <v>18.636363636363633</v>
-      </c>
-      <c r="K6" s="14">
+        <v>2.9565986125767556</v>
+      </c>
+      <c r="P6" s="18">
+        <v>1.576608</v>
+      </c>
+      <c r="Q6" s="14">
         <f t="shared" si="6"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L6" s="18">
-        <f t="shared" si="7"/>
-        <v>3.6363636363636362</v>
-      </c>
-      <c r="M6" s="14">
-        <f t="shared" si="8"/>
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="shared" si="9"/>
-        <v>21.578947368421051</v>
-      </c>
-      <c r="O6" s="14">
-        <f t="shared" si="10"/>
-        <v>3.8000000000000003</v>
-      </c>
-      <c r="P6" s="18">
-        <f t="shared" si="11"/>
-        <v>4.2105263157894735</v>
-      </c>
-      <c r="Q6" s="14">
-        <f t="shared" si="12"/>
-        <v>3.0875000000000004</v>
-      </c>
+        <v>3.2761453703139907</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6">
+        <v>9.2037879999999994</v>
+      </c>
+      <c r="Z6">
+        <v>3.3836400000000002</v>
+      </c>
+      <c r="AA6">
+        <v>3.5435400000000001</v>
+      </c>
+      <c r="AB6">
+        <v>3.112965</v>
+      </c>
+      <c r="AC6"/>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
     </row>
     <row r="7" ht="12.6" customHeight="1">
       <c r="B7" s="19">
@@ -4350,59 +4588,98 @@
         <v>6</v>
       </c>
       <c r="D7" s="15">
-        <v>82</v>
+        <v>9.0662979999999997</v>
       </c>
       <c r="E7" s="16">
-        <v>13</v>
+        <v>5.2065789999999996</v>
       </c>
       <c r="F7" s="17">
+        <v>2.9271660000000002</v>
+      </c>
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
-        <v>17.083333333333332</v>
-      </c>
-      <c r="G7" s="20">
+        <v>3.0972954728225184</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1.6478139999999999</v>
+      </c>
+      <c r="I7" s="20">
         <f t="shared" si="2"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="H7" s="18">
+        <v>3.1596885328077078</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2.961538</v>
+      </c>
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="I7" s="20">
+        <v>3.0613478537165486</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1.524235</v>
+      </c>
+      <c r="M7" s="14">
         <f t="shared" si="4"/>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="J7" s="17">
+        <v>3.4158636955587554</v>
+      </c>
+      <c r="N7" s="17">
+        <v>2.9571540000000001</v>
+      </c>
+      <c r="O7" s="14">
         <f t="shared" si="5"/>
-        <v>15.530303030303028</v>
-      </c>
-      <c r="K7" s="14">
+        <v>3.0658863217810097</v>
+      </c>
+      <c r="P7" s="18">
+        <v>1.5168569999999999</v>
+      </c>
+      <c r="Q7" s="14">
         <f t="shared" si="6"/>
-        <v>5.2800000000000011</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" si="7"/>
-        <v>3.0303030303030298</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="8"/>
-        <v>4.2900000000000009</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="9"/>
-        <v>17.982456140350877</v>
-      </c>
-      <c r="O7" s="14">
-        <f t="shared" si="10"/>
-        <v>4.5600000000000005</v>
-      </c>
-      <c r="P7" s="18">
-        <f t="shared" si="11"/>
-        <v>3.5087719298245612</v>
-      </c>
-      <c r="Q7" s="14">
-        <f t="shared" si="12"/>
-        <v>3.7050000000000001</v>
-      </c>
+        <v>3.4324784735805682</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7">
+        <v>9.0662979999999997</v>
+      </c>
+      <c r="Z7">
+        <v>2.9271660000000002</v>
+      </c>
+      <c r="AA7">
+        <v>2.961538</v>
+      </c>
+      <c r="AB7">
+        <v>2.9571540000000001</v>
+      </c>
+      <c r="AC7"/>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
     </row>
     <row r="8" ht="12.6" customHeight="1">
       <c r="B8" s="19">
@@ -4413,59 +4690,98 @@
         <v>7</v>
       </c>
       <c r="D8" s="15">
-        <v>82</v>
+        <v>9.0685570000000002</v>
       </c>
       <c r="E8" s="16">
-        <v>13</v>
+        <v>5.1710349999999998</v>
       </c>
       <c r="F8" s="17">
+        <v>3.1274860000000002</v>
+      </c>
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
-        <v>14.642857142857141</v>
-      </c>
-      <c r="G8" s="20">
+        <v>2.8996315251291294</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1.594573</v>
+      </c>
+      <c r="I8" s="20">
         <f t="shared" si="2"/>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="H8" s="18">
+        <v>3.2428963741390326</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2.862142</v>
+      </c>
+      <c r="K8" s="14">
         <f t="shared" si="3"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="I8" s="20">
+        <v>3.1684511110909241</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1.4419090000000001</v>
+      </c>
+      <c r="M8" s="14">
         <f t="shared" si="4"/>
-        <v>4.5499999999999998</v>
-      </c>
-      <c r="J8" s="17">
+        <v>3.5862422663288736</v>
+      </c>
+      <c r="N8" s="17">
+        <v>3.0936240000000002</v>
+      </c>
+      <c r="O8" s="14">
         <f t="shared" si="5"/>
-        <v>13.311688311688309</v>
-      </c>
-      <c r="K8" s="14">
+        <v>2.9313701341856668</v>
+      </c>
+      <c r="P8" s="18">
+        <v>1.5373330000000001</v>
+      </c>
+      <c r="Q8" s="14">
         <f t="shared" si="6"/>
-        <v>6.160000000000001</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="7"/>
-        <v>2.5974025974025974</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="8"/>
-        <v>5.0049999999999999</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="shared" si="9"/>
-        <v>15.413533834586465</v>
-      </c>
-      <c r="O8" s="14">
-        <f t="shared" si="10"/>
-        <v>5.3200000000000003</v>
-      </c>
-      <c r="P8" s="18">
-        <f t="shared" si="11"/>
-        <v>3.0075187969924815</v>
-      </c>
-      <c r="Q8" s="14">
-        <f t="shared" si="12"/>
-        <v>4.3224999999999998</v>
-      </c>
+        <v>3.3636401482307345</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8">
+        <v>9.0685570000000002</v>
+      </c>
+      <c r="Z8">
+        <v>3.1274860000000002</v>
+      </c>
+      <c r="AA8">
+        <v>2.862142</v>
+      </c>
+      <c r="AB8">
+        <v>3.0936240000000002</v>
+      </c>
+      <c r="AC8"/>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
     </row>
     <row r="9" ht="12.6" customHeight="1">
       <c r="B9" s="19">
@@ -4476,59 +4792,98 @@
         <v>8</v>
       </c>
       <c r="D9" s="15">
-        <v>82</v>
+        <v>9.0631419999999991</v>
       </c>
       <c r="E9" s="16">
-        <v>13</v>
+        <v>5.2043569999999999</v>
       </c>
       <c r="F9" s="17">
+        <v>2.606052</v>
+      </c>
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
-        <v>12.8125</v>
-      </c>
-      <c r="G9" s="20">
+        <v>3.4777287636624283</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.382952</v>
+      </c>
+      <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>6.4000000000000004</v>
-      </c>
-      <c r="H9" s="18">
+        <v>3.7632231632045077</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2.4859019999999998</v>
+      </c>
+      <c r="K9" s="14">
         <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="I9" s="20">
+        <v>3.6458162872068165</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1.2122809999999999</v>
+      </c>
+      <c r="M9" s="14">
         <f t="shared" si="4"/>
-        <v>5.2000000000000002</v>
-      </c>
-      <c r="J9" s="17">
+        <v>4.2930285965052661</v>
+      </c>
+      <c r="N9" s="17">
+        <v>2.570621</v>
+      </c>
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
-        <v>11.647727272727272</v>
-      </c>
-      <c r="K9" s="14">
+        <v>3.5256624761098578</v>
+      </c>
+      <c r="P9" s="18">
+        <v>1.2373000000000001</v>
+      </c>
+      <c r="Q9" s="14">
         <f t="shared" si="6"/>
-        <v>7.0400000000000009</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="7"/>
-        <v>2.2727272727272725</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="8"/>
-        <v>5.7200000000000006</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="9"/>
-        <v>13.486842105263159</v>
-      </c>
-      <c r="O9" s="14">
-        <f t="shared" si="10"/>
-        <v>6.0799999999999992</v>
-      </c>
-      <c r="P9" s="18">
-        <f t="shared" si="11"/>
-        <v>2.6315789473684212</v>
-      </c>
-      <c r="Q9" s="14">
-        <f t="shared" si="12"/>
-        <v>4.9399999999999995</v>
-      </c>
+        <v>4.2062208033621591</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9">
+        <v>9.0631419999999991</v>
+      </c>
+      <c r="Z9">
+        <v>2.606052</v>
+      </c>
+      <c r="AA9">
+        <v>2.4859019999999998</v>
+      </c>
+      <c r="AB9">
+        <v>2.570621</v>
+      </c>
+      <c r="AC9"/>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+      <c r="BE9"/>
+      <c r="BF9"/>
+      <c r="BG9"/>
     </row>
     <row r="10" ht="12.6" customHeight="1">
       <c r="B10" s="19">
@@ -4539,59 +4894,98 @@
         <v>9</v>
       </c>
       <c r="D10" s="15">
-        <v>82</v>
+        <v>9.1341859999999997</v>
       </c>
       <c r="E10" s="16">
-        <v>13</v>
+        <v>5.1580440000000003</v>
       </c>
       <c r="F10" s="17">
+        <v>2.6794539999999998</v>
+      </c>
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
-        <v>11.388888888888888</v>
-      </c>
-      <c r="G10" s="20">
+        <v>3.4089728728315545</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.489549</v>
+      </c>
+      <c r="I10" s="20">
         <f t="shared" si="2"/>
-        <v>7.2000000000000011</v>
-      </c>
-      <c r="H10" s="18">
+        <v>3.4628226396043367</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2.4746610000000002</v>
+      </c>
+      <c r="K10" s="14">
         <f t="shared" si="3"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="I10" s="20">
+        <v>3.6910857689194598</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1.2579389999999999</v>
+      </c>
+      <c r="M10" s="14">
         <f t="shared" si="4"/>
-        <v>5.8499999999999996</v>
-      </c>
-      <c r="J10" s="17">
+        <v>4.1003927853417377</v>
+      </c>
+      <c r="N10" s="17">
+        <v>2.3541979999999998</v>
+      </c>
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
-        <v>10.353535353535351</v>
-      </c>
-      <c r="K10" s="14">
+        <v>3.879956571197495</v>
+      </c>
+      <c r="P10" s="18">
+        <v>1.1357649999999999</v>
+      </c>
+      <c r="Q10" s="14">
         <f t="shared" si="6"/>
-        <v>7.9200000000000017</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="7"/>
-        <v>2.0202020202020203</v>
-      </c>
-      <c r="M10" s="14">
-        <f t="shared" si="8"/>
-        <v>6.4349999999999996</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="9"/>
-        <v>11.988304093567251</v>
-      </c>
-      <c r="O10" s="14">
-        <f t="shared" si="10"/>
-        <v>6.8399999999999999</v>
-      </c>
-      <c r="P10" s="18">
-        <f t="shared" si="11"/>
-        <v>2.3391812865497079</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="shared" si="12"/>
-        <v>5.5574999999999992</v>
-      </c>
+        <v>4.5414711670107817</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10">
+        <v>9.1341859999999997</v>
+      </c>
+      <c r="Z10">
+        <v>2.6794539999999998</v>
+      </c>
+      <c r="AA10">
+        <v>2.4746610000000002</v>
+      </c>
+      <c r="AB10">
+        <v>2.3541979999999998</v>
+      </c>
+      <c r="AC10"/>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
     </row>
     <row r="11" ht="12.6" customHeight="1">
       <c r="B11" s="19">
@@ -4602,59 +4996,100 @@
         <v>10</v>
       </c>
       <c r="D11" s="15">
-        <v>82</v>
+        <v>9.032985</v>
       </c>
       <c r="E11" s="16">
-        <v>13</v>
+        <v>5.1502119999999998</v>
       </c>
       <c r="F11" s="17">
+        <v>2.3724630000000002</v>
+      </c>
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
-        <v>10.249999999999998</v>
-      </c>
-      <c r="G11" s="20">
+        <v>3.8074292412568709</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.2108719999999999</v>
+      </c>
+      <c r="I11" s="20">
         <f t="shared" si="2"/>
-        <v>8.0000000000000018</v>
-      </c>
-      <c r="H11" s="18">
+        <v>4.2533083595953993</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2.278708</v>
+      </c>
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I11" s="20">
+        <v>3.9640818393580926</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1.0838030000000001</v>
+      </c>
+      <c r="M11" s="14">
         <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="J11" s="17">
+        <v>4.7519816793273311</v>
+      </c>
+      <c r="N11" s="17">
+        <v>2.2158090000000001</v>
+      </c>
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
-        <v>9.3181818181818166</v>
-      </c>
-      <c r="K11" s="14">
+        <v>4.0766081372537073</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0.99947900000000001</v>
+      </c>
+      <c r="Q11" s="14">
         <f t="shared" si="6"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="7"/>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="8"/>
-        <v>7.1500000000000004</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="9"/>
-        <v>10.789473684210526</v>
-      </c>
-      <c r="O11" s="14">
-        <f t="shared" si="10"/>
-        <v>7.6000000000000005</v>
-      </c>
-      <c r="P11" s="18">
-        <f t="shared" si="11"/>
-        <v>2.1052631578947367</v>
-      </c>
-      <c r="Q11" s="14">
-        <f t="shared" si="12"/>
-        <v>6.1750000000000007</v>
-      </c>
+        <v>5.1528966591594214</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11">
+        <v>9.032985</v>
+      </c>
+      <c r="Z11">
+        <v>2.3724630000000002</v>
+      </c>
+      <c r="AA11">
+        <v>2.278708</v>
+      </c>
+      <c r="AB11">
+        <v>2.2158090000000001</v>
+      </c>
+      <c r="AC11"/>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
     </row>
     <row r="12" ht="12.6" customHeight="1">
       <c r="B12" s="19">
@@ -4665,59 +5100,100 @@
         <v>11</v>
       </c>
       <c r="D12" s="15">
-        <v>82</v>
+        <v>9.0912129999999998</v>
       </c>
       <c r="E12" s="16">
-        <v>13</v>
+        <v>5.1864109999999997</v>
       </c>
       <c r="F12" s="17">
+        <v>2.482761</v>
+      </c>
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
-        <v>9.3181818181818166</v>
-      </c>
-      <c r="G12" s="20">
+        <v>3.6617350602816781</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1.305712</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H12" s="18">
+        <v>3.9720941524624109</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2.459489</v>
+      </c>
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
-        <v>1.8181818181818181</v>
-      </c>
-      <c r="I12" s="20">
+        <v>3.6963828665222733</v>
+      </c>
+      <c r="L12" s="18">
+        <v>1.077814</v>
+      </c>
+      <c r="M12" s="14">
         <f t="shared" si="4"/>
-        <v>7.1500000000000004</v>
-      </c>
-      <c r="J12" s="17">
+        <v>4.8119721955736328</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2.4372609999999999</v>
+      </c>
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
-        <v>8.4710743801652875</v>
-      </c>
-      <c r="K12" s="14">
+        <v>3.7300941507700651</v>
+      </c>
+      <c r="P12" s="18">
+        <v>1.121469</v>
+      </c>
+      <c r="Q12" s="14">
         <f t="shared" si="6"/>
-        <v>9.6800000000000015</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="7"/>
-        <v>1.6528925619834709</v>
-      </c>
-      <c r="M12" s="14">
-        <f t="shared" si="8"/>
-        <v>7.8650000000000011</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" si="9"/>
-        <v>9.8086124401913857</v>
-      </c>
-      <c r="O12" s="14">
-        <f t="shared" si="10"/>
-        <v>8.3600000000000012</v>
-      </c>
-      <c r="P12" s="18">
-        <f t="shared" si="11"/>
-        <v>1.9138755980861244</v>
-      </c>
-      <c r="Q12" s="14">
-        <f t="shared" si="12"/>
-        <v>6.7925000000000004</v>
-      </c>
+        <v>4.6246583721886196</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12">
+        <v>9.0912129999999998</v>
+      </c>
+      <c r="Z12">
+        <v>2.482761</v>
+      </c>
+      <c r="AA12">
+        <v>2.459489</v>
+      </c>
+      <c r="AB12">
+        <v>2.4372609999999999</v>
+      </c>
+      <c r="AC12"/>
+      <c r="AD12">
+        <v>11</v>
+      </c>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
     </row>
     <row r="13" ht="12.6" customHeight="1">
       <c r="B13" s="19">
@@ -4728,59 +5204,100 @@
         <v>12</v>
       </c>
       <c r="D13" s="15">
-        <v>82</v>
+        <v>9.3150709999999997</v>
       </c>
       <c r="E13" s="16">
-        <v>13</v>
+        <v>5.2520179999999996</v>
       </c>
       <c r="F13" s="17">
+        <v>2.4041130000000002</v>
+      </c>
+      <c r="G13" s="20">
         <f t="shared" si="1"/>
-        <v>8.5416666666666661</v>
-      </c>
-      <c r="G13" s="20">
+        <v>3.8746394200272611</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1.1862429999999999</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="2"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="H13" s="18">
+        <v>4.4274385602275421</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2.464699</v>
+      </c>
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="I13" s="20">
+        <v>3.7793949687162609</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1.1593640000000001</v>
+      </c>
+      <c r="M13" s="14">
         <f t="shared" si="4"/>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="J13" s="17">
+        <v>4.5300854606491141</v>
+      </c>
+      <c r="N13" s="17">
+        <v>2.4406080000000001</v>
+      </c>
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
-        <v>7.7651515151515138</v>
-      </c>
-      <c r="K13" s="14">
+        <v>3.8167010023731787</v>
+      </c>
+      <c r="P13" s="18">
+        <v>1.1430340000000001</v>
+      </c>
+      <c r="Q13" s="14">
         <f t="shared" si="6"/>
-        <v>10.560000000000002</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="7"/>
-        <v>1.5151515151515149</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="8"/>
-        <v>8.5800000000000018</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="9"/>
-        <v>8.9912280701754383</v>
-      </c>
-      <c r="O13" s="14">
-        <f t="shared" si="10"/>
-        <v>9.120000000000001</v>
-      </c>
-      <c r="P13" s="18">
-        <f t="shared" si="11"/>
-        <v>1.7543859649122806</v>
-      </c>
-      <c r="Q13" s="14">
-        <f t="shared" si="12"/>
-        <v>7.4100000000000001</v>
-      </c>
+        <v>4.5948047039720592</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13">
+        <v>9.3150709999999997</v>
+      </c>
+      <c r="Z13">
+        <v>2.4041130000000002</v>
+      </c>
+      <c r="AA13">
+        <v>2.464699</v>
+      </c>
+      <c r="AB13">
+        <v>2.4406080000000001</v>
+      </c>
+      <c r="AC13"/>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
     </row>
     <row r="14" ht="12.6" customHeight="1">
       <c r="B14" s="19">
@@ -4791,59 +5308,100 @@
         <v>13</v>
       </c>
       <c r="D14" s="15">
-        <v>82</v>
+        <v>9.1787419999999997</v>
       </c>
       <c r="E14" s="16">
+        <v>5.1976240000000002</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2.3958930000000001</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="1"/>
+        <v>3.8310316863065252</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.269903</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="2"/>
+        <v>4.092929932443659</v>
+      </c>
+      <c r="J14" s="17">
+        <v>2.2201399999999998</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="3"/>
+        <v>4.1343077463583384</v>
+      </c>
+      <c r="L14" s="18">
+        <v>1.105226</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="4"/>
+        <v>4.7027702931346171</v>
+      </c>
+      <c r="N14" s="17">
+        <v>2.2454499999999999</v>
+      </c>
+      <c r="O14" s="14">
+        <f t="shared" si="5"/>
+        <v>4.0877071411075727</v>
+      </c>
+      <c r="P14" s="18">
+        <v>1.032278</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="6"/>
+        <v>5.0351010096117523</v>
+      </c>
+      <c r="S14">
         <v>13</v>
       </c>
-      <c r="F14" s="17">
-        <f t="shared" si="1"/>
-        <v>7.8846153846153841</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" si="2"/>
-        <v>10.4</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="3"/>
-        <v>1.5384615384615383</v>
-      </c>
-      <c r="I14" s="20">
-        <f t="shared" si="4"/>
-        <v>8.4500000000000011</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="5"/>
-        <v>7.1678321678321666</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="6"/>
-        <v>11.440000000000001</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="7"/>
-        <v>1.3986013986013983</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="8"/>
-        <v>9.2950000000000017</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="9"/>
-        <v>8.2995951417004044</v>
-      </c>
-      <c r="O14" s="14">
-        <f t="shared" si="10"/>
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="P14" s="18">
-        <f t="shared" si="11"/>
-        <v>1.6194331983805668</v>
-      </c>
-      <c r="Q14" s="14">
-        <f t="shared" si="12"/>
-        <v>8.0274999999999999</v>
-      </c>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14">
+        <v>9.1787419999999997</v>
+      </c>
+      <c r="Z14">
+        <v>2.3958930000000001</v>
+      </c>
+      <c r="AA14">
+        <v>2.2201399999999998</v>
+      </c>
+      <c r="AB14">
+        <v>2.2454499999999999</v>
+      </c>
+      <c r="AC14"/>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
     </row>
     <row r="15" ht="12.6" customHeight="1">
       <c r="B15" s="19">
@@ -4854,59 +5412,100 @@
         <v>14</v>
       </c>
       <c r="D15" s="15">
-        <v>82</v>
+        <v>9.0927609999999994</v>
       </c>
       <c r="E15" s="16">
-        <v>13</v>
+        <v>5.1791</v>
       </c>
       <c r="F15" s="17">
+        <v>2.2169279999999998</v>
+      </c>
+      <c r="G15" s="20">
         <f t="shared" si="1"/>
-        <v>7.3214285714285703</v>
-      </c>
-      <c r="G15" s="20">
+        <v>4.101513896707516</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1.1715120000000001</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="2"/>
-        <v>11.200000000000001</v>
-      </c>
-      <c r="H15" s="18">
+        <v>4.4208680747615041</v>
+      </c>
+      <c r="J15" s="17">
+        <v>2.100177</v>
+      </c>
+      <c r="K15" s="14">
         <f t="shared" si="3"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="I15" s="20">
+        <v>4.329521273683123</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0.92144800000000004</v>
+      </c>
+      <c r="M15" s="14">
         <f t="shared" si="4"/>
-        <v>9.0999999999999996</v>
-      </c>
-      <c r="J15" s="17">
+        <v>5.6206101700801341</v>
+      </c>
+      <c r="N15" s="17">
+        <v>2.1628180000000001</v>
+      </c>
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
-        <v>6.6558441558441546</v>
-      </c>
-      <c r="K15" s="14">
+        <v>4.2041267457548432</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0.96224500000000002</v>
+      </c>
+      <c r="Q15" s="14">
         <f t="shared" si="6"/>
-        <v>12.320000000000002</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="7"/>
-        <v>1.2987012987012987</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="8"/>
-        <v>10.01</v>
-      </c>
-      <c r="N15" s="17">
-        <f t="shared" si="9"/>
-        <v>7.7067669172932325</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" si="10"/>
-        <v>10.640000000000001</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" si="11"/>
-        <v>1.5037593984962407</v>
-      </c>
-      <c r="Q15" s="14">
-        <f t="shared" si="12"/>
-        <v>8.6449999999999996</v>
-      </c>
+        <v>5.3823090792885386</v>
+      </c>
+      <c r="S15">
+        <v>14</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15">
+        <v>9.0927609999999994</v>
+      </c>
+      <c r="Z15">
+        <v>2.2169279999999998</v>
+      </c>
+      <c r="AA15">
+        <v>2.100177</v>
+      </c>
+      <c r="AB15">
+        <v>2.1628180000000001</v>
+      </c>
+      <c r="AC15"/>
+      <c r="AD15">
+        <v>14</v>
+      </c>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+      <c r="BE15"/>
+      <c r="BF15"/>
+      <c r="BG15"/>
     </row>
     <row r="16" ht="12.6" customHeight="1">
       <c r="B16" s="19">
@@ -4917,59 +5516,100 @@
         <v>15</v>
       </c>
       <c r="D16" s="15">
-        <v>82</v>
+        <v>9.1371939999999991</v>
       </c>
       <c r="E16" s="16">
-        <v>13</v>
+        <v>5.2038880000000001</v>
       </c>
       <c r="F16" s="17">
+        <v>2.3567870000000002</v>
+      </c>
+      <c r="G16" s="20">
         <f t="shared" si="1"/>
-        <v>6.833333333333333</v>
-      </c>
-      <c r="G16" s="20">
+        <v>3.8769706384157745</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1.0766629999999999</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H16" s="18">
+        <v>4.8333489680615012</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2.1805240000000001</v>
+      </c>
+      <c r="K16" s="14">
         <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I16" s="20">
+        <v>4.1903661688658316</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1.082937</v>
+      </c>
+      <c r="M16" s="14">
         <f t="shared" si="4"/>
-        <v>9.75</v>
-      </c>
-      <c r="J16" s="17">
+        <v>4.8053469407731013</v>
+      </c>
+      <c r="N16" s="17">
+        <v>2.1501749999999999</v>
+      </c>
+      <c r="O16" s="14">
         <f t="shared" si="5"/>
-        <v>6.212121212121211</v>
-      </c>
-      <c r="K16" s="14">
+        <v>4.2495117839245644</v>
+      </c>
+      <c r="P16" s="18">
+        <v>0.98214000000000001</v>
+      </c>
+      <c r="Q16" s="14">
         <f t="shared" si="6"/>
-        <v>13.200000000000003</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="7"/>
-        <v>1.2121212121212119</v>
-      </c>
-      <c r="M16" s="14">
-        <f t="shared" si="8"/>
-        <v>10.725000000000001</v>
-      </c>
-      <c r="N16" s="17">
-        <f t="shared" si="9"/>
-        <v>7.192982456140351</v>
-      </c>
-      <c r="O16" s="14">
-        <f t="shared" si="10"/>
-        <v>11.4</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="11"/>
-        <v>1.4035087719298245</v>
-      </c>
-      <c r="Q16" s="14">
-        <f t="shared" si="12"/>
-        <v>9.2625000000000011</v>
-      </c>
+        <v>5.2985195593296268</v>
+      </c>
+      <c r="S16">
+        <v>15</v>
+      </c>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16">
+        <v>9.1371939999999991</v>
+      </c>
+      <c r="Z16">
+        <v>2.3567870000000002</v>
+      </c>
+      <c r="AA16">
+        <v>2.1805240000000001</v>
+      </c>
+      <c r="AB16">
+        <v>2.1501749999999999</v>
+      </c>
+      <c r="AC16"/>
+      <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
     </row>
     <row r="17" ht="12.6" customHeight="1">
       <c r="B17" s="19">
@@ -4980,59 +5620,100 @@
         <v>16</v>
       </c>
       <c r="D17" s="15">
-        <v>82</v>
+        <v>9.1521129999999999</v>
       </c>
       <c r="E17" s="16">
-        <v>13</v>
+        <v>5.3014609999999998</v>
       </c>
       <c r="F17" s="17">
+        <v>2.2561230000000001</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="1"/>
-        <v>6.40625</v>
-      </c>
-      <c r="G17" s="20">
+        <v>4.0565665081203459</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.0805670000000001</v>
+      </c>
+      <c r="I17" s="20">
         <f t="shared" si="2"/>
-        <v>12.800000000000001</v>
-      </c>
-      <c r="H17" s="18">
+        <v>4.9061844383550479</v>
+      </c>
+      <c r="J17" s="17">
+        <v>2.2629039999999998</v>
+      </c>
+      <c r="K17" s="14">
         <f t="shared" si="3"/>
-        <v>1.25</v>
-      </c>
-      <c r="I17" s="20">
+        <v>4.0444106334161773</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1.2026669999999999</v>
+      </c>
+      <c r="M17" s="14">
         <f t="shared" si="4"/>
-        <v>10.4</v>
-      </c>
-      <c r="J17" s="17">
+        <v>4.4080871928804894</v>
+      </c>
+      <c r="N17" s="17">
+        <v>2.3147519999999999</v>
+      </c>
+      <c r="O17" s="14">
         <f t="shared" si="5"/>
-        <v>5.8238636363636358</v>
-      </c>
-      <c r="K17" s="14">
+        <v>3.9538201068624201</v>
+      </c>
+      <c r="P17" s="18">
+        <v>1.090214</v>
+      </c>
+      <c r="Q17" s="14">
         <f t="shared" si="6"/>
-        <v>14.080000000000002</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="7"/>
-        <v>1.1363636363636362</v>
-      </c>
-      <c r="M17" s="14">
-        <f t="shared" si="8"/>
-        <v>11.440000000000001</v>
-      </c>
-      <c r="N17" s="17">
-        <f t="shared" si="9"/>
-        <v>6.7434210526315796</v>
-      </c>
-      <c r="O17" s="14">
-        <f t="shared" si="10"/>
-        <v>12.159999999999998</v>
-      </c>
-      <c r="P17" s="18">
-        <f t="shared" si="11"/>
-        <v>1.3157894736842106</v>
-      </c>
-      <c r="Q17" s="14">
-        <f t="shared" si="12"/>
-        <v>9.879999999999999</v>
-      </c>
+        <v>4.8627709789087277</v>
+      </c>
+      <c r="S17">
+        <v>16</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17">
+        <v>9.1521129999999999</v>
+      </c>
+      <c r="Z17">
+        <v>2.2561230000000001</v>
+      </c>
+      <c r="AA17">
+        <v>2.2629039999999998</v>
+      </c>
+      <c r="AB17">
+        <v>2.3147519999999999</v>
+      </c>
+      <c r="AC17"/>
+      <c r="AD17">
+        <v>16</v>
+      </c>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
     </row>
     <row r="18" ht="12.6" customHeight="1">
       <c r="B18" s="19">
@@ -5043,59 +5724,100 @@
         <v>17</v>
       </c>
       <c r="D18" s="15">
-        <v>82</v>
+        <v>9.140943</v>
       </c>
       <c r="E18" s="16">
-        <v>13</v>
+        <v>5.2379730000000002</v>
       </c>
       <c r="F18" s="17">
+        <v>2.3386269999999998</v>
+      </c>
+      <c r="G18" s="20">
         <f t="shared" si="1"/>
-        <v>6.0294117647058814</v>
-      </c>
-      <c r="G18" s="20">
+        <v>3.9086793233807704</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1.1750910000000001</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" si="2"/>
-        <v>13.600000000000001</v>
-      </c>
-      <c r="H18" s="18">
+        <v>4.4575041422323887</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2.404563</v>
+      </c>
+      <c r="K18" s="14">
         <f t="shared" si="3"/>
-        <v>1.1764705882352939</v>
-      </c>
-      <c r="I18" s="20">
+        <v>3.801498650690375</v>
+      </c>
+      <c r="L18" s="18">
+        <v>1.111243</v>
+      </c>
+      <c r="M18" s="14">
         <f t="shared" si="4"/>
-        <v>11.050000000000002</v>
-      </c>
-      <c r="J18" s="17">
+        <v>4.7136161937578009</v>
+      </c>
+      <c r="N18" s="17">
+        <v>2.3748490000000002</v>
+      </c>
+      <c r="O18" s="14">
         <f t="shared" si="5"/>
-        <v>5.4812834224598914</v>
-      </c>
-      <c r="K18" s="14">
+        <v>3.8490628246259022</v>
+      </c>
+      <c r="P18" s="18">
+        <v>1.130538</v>
+      </c>
+      <c r="Q18" s="14">
         <f t="shared" si="6"/>
-        <v>14.960000000000004</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="7"/>
-        <v>1.0695187165775399</v>
-      </c>
-      <c r="M18" s="14">
-        <f t="shared" si="8"/>
-        <v>12.155000000000001</v>
-      </c>
-      <c r="N18" s="17">
-        <f t="shared" si="9"/>
-        <v>6.3467492260061915</v>
-      </c>
-      <c r="O18" s="14">
-        <f t="shared" si="10"/>
-        <v>12.920000000000002</v>
-      </c>
-      <c r="P18" s="18">
-        <f t="shared" si="11"/>
-        <v>1.2383900928792568</v>
-      </c>
-      <c r="Q18" s="14">
-        <f t="shared" si="12"/>
-        <v>10.4975</v>
-      </c>
+        <v>4.6331684560802024</v>
+      </c>
+      <c r="S18">
+        <v>17</v>
+      </c>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18">
+        <v>9.140943</v>
+      </c>
+      <c r="Z18">
+        <v>2.3386269999999998</v>
+      </c>
+      <c r="AA18">
+        <v>2.404563</v>
+      </c>
+      <c r="AB18">
+        <v>2.3748490000000002</v>
+      </c>
+      <c r="AC18"/>
+      <c r="AD18">
+        <v>17</v>
+      </c>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+      <c r="BE18"/>
+      <c r="BF18"/>
+      <c r="BG18"/>
     </row>
     <row r="19" ht="12.6" customHeight="1">
       <c r="B19" s="19">
@@ -5106,59 +5828,100 @@
         <v>18</v>
       </c>
       <c r="D19" s="15">
-        <v>82</v>
+        <v>9.1129680000000004</v>
       </c>
       <c r="E19" s="16">
-        <v>13</v>
+        <v>5.3156140000000001</v>
       </c>
       <c r="F19" s="17">
+        <v>1.997795</v>
+      </c>
+      <c r="G19" s="20">
         <f t="shared" si="1"/>
-        <v>5.6944444444444438</v>
-      </c>
-      <c r="G19" s="20">
+        <v>4.5615130681576437</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0.93783899999999998</v>
+      </c>
+      <c r="I19" s="20">
         <f t="shared" si="2"/>
-        <v>14.400000000000002</v>
-      </c>
-      <c r="H19" s="18">
+        <v>5.6679387400182764</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1.950026</v>
+      </c>
+      <c r="K19" s="14">
         <f t="shared" si="3"/>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="I19" s="20">
+        <v>4.6732546130154162</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0.84699500000000005</v>
+      </c>
+      <c r="M19" s="14">
         <f t="shared" si="4"/>
-        <v>11.699999999999999</v>
-      </c>
-      <c r="J19" s="17">
+        <v>6.2758505067916577</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1.9558120000000001</v>
+      </c>
+      <c r="O19" s="14">
         <f t="shared" si="5"/>
-        <v>5.1767676767676756</v>
-      </c>
-      <c r="K19" s="14">
+        <v>4.6594294339128712</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0.86462499999999998</v>
+      </c>
+      <c r="Q19" s="14">
         <f t="shared" si="6"/>
-        <v>15.840000000000003</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="7"/>
-        <v>1.0101010101010102</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="8"/>
-        <v>12.869999999999999</v>
-      </c>
-      <c r="N19" s="17">
-        <f t="shared" si="9"/>
-        <v>5.9941520467836256</v>
-      </c>
-      <c r="O19" s="14">
-        <f t="shared" si="10"/>
-        <v>13.68</v>
-      </c>
-      <c r="P19" s="18">
-        <f t="shared" si="11"/>
-        <v>1.169590643274854</v>
-      </c>
-      <c r="Q19" s="14">
-        <f t="shared" si="12"/>
-        <v>11.114999999999998</v>
-      </c>
+        <v>6.1478837646378492</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19">
+        <v>9.1129680000000004</v>
+      </c>
+      <c r="Z19">
+        <v>1.997795</v>
+      </c>
+      <c r="AA19">
+        <v>1.950026</v>
+      </c>
+      <c r="AB19">
+        <v>1.9558120000000001</v>
+      </c>
+      <c r="AC19"/>
+      <c r="AD19">
+        <v>18</v>
+      </c>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
     </row>
     <row r="20" ht="12.6" customHeight="1">
       <c r="B20" s="19">
@@ -5169,59 +5932,100 @@
         <v>19</v>
       </c>
       <c r="D20" s="15">
-        <v>82</v>
+        <v>9.1068859999999994</v>
       </c>
       <c r="E20" s="16">
-        <v>13</v>
+        <v>5.1836609999999999</v>
       </c>
       <c r="F20" s="17">
+        <v>2.3264459999999998</v>
+      </c>
+      <c r="G20" s="20">
         <f t="shared" si="1"/>
-        <v>5.3947368421052628</v>
-      </c>
-      <c r="G20" s="20">
+        <v>3.9145056450912681</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1.050929</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="2"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="H20" s="18">
+        <v>4.9324559508777472</v>
+      </c>
+      <c r="J20" s="17">
+        <v>2.325367</v>
+      </c>
+      <c r="K20" s="14">
         <f t="shared" si="3"/>
-        <v>1.0526315789473684</v>
-      </c>
-      <c r="I20" s="20">
+        <v>3.9163220257275517</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1.1315500000000001</v>
+      </c>
+      <c r="M20" s="14">
         <f t="shared" si="4"/>
-        <v>12.350000000000001</v>
-      </c>
-      <c r="J20" s="17">
+        <v>4.5810269099907206</v>
+      </c>
+      <c r="N20" s="17">
+        <v>2.2380640000000001</v>
+      </c>
+      <c r="O20" s="14">
         <f t="shared" si="5"/>
-        <v>4.9043062200956928</v>
-      </c>
-      <c r="K20" s="14">
+        <v>4.0690909643334594</v>
+      </c>
+      <c r="P20" s="18">
+        <v>0.98899700000000001</v>
+      </c>
+      <c r="Q20" s="14">
         <f t="shared" si="6"/>
-        <v>16.720000000000002</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="7"/>
-        <v>0.95693779904306209</v>
-      </c>
-      <c r="M20" s="14">
-        <f t="shared" si="8"/>
-        <v>13.585000000000001</v>
-      </c>
-      <c r="N20" s="17">
-        <f t="shared" si="9"/>
-        <v>5.6786703601108028</v>
-      </c>
-      <c r="O20" s="14">
-        <f t="shared" si="10"/>
-        <v>14.440000000000001</v>
-      </c>
-      <c r="P20" s="18">
-        <f t="shared" si="11"/>
-        <v>1.10803324099723</v>
-      </c>
-      <c r="Q20" s="14">
-        <f t="shared" si="12"/>
-        <v>11.7325</v>
-      </c>
+        <v>5.2413313690536976</v>
+      </c>
+      <c r="S20">
+        <v>19</v>
+      </c>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20">
+        <v>9.1068859999999994</v>
+      </c>
+      <c r="Z20">
+        <v>2.3264459999999998</v>
+      </c>
+      <c r="AA20">
+        <v>2.325367</v>
+      </c>
+      <c r="AB20">
+        <v>2.2380640000000001</v>
+      </c>
+      <c r="AC20"/>
+      <c r="AD20">
+        <v>19</v>
+      </c>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
     </row>
     <row r="21" ht="12.6" customHeight="1">
       <c r="B21" s="19">
@@ -5232,59 +6036,100 @@
         <v>20</v>
       </c>
       <c r="D21" s="15">
-        <v>82</v>
+        <v>9.012181</v>
       </c>
       <c r="E21" s="16">
-        <v>13</v>
+        <v>5.2072599999999998</v>
       </c>
       <c r="F21" s="17">
+        <v>1.924296</v>
+      </c>
+      <c r="G21" s="20">
         <f t="shared" si="1"/>
-        <v>5.1249999999999991</v>
-      </c>
-      <c r="G21" s="20">
+        <v>4.6833652411063582</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.92454099999999995</v>
+      </c>
+      <c r="I21" s="20">
         <f t="shared" si="2"/>
-        <v>16.000000000000004</v>
-      </c>
-      <c r="H21" s="18">
+        <v>5.6322650915427221</v>
+      </c>
+      <c r="J21" s="17">
+        <v>1.8326739999999999</v>
+      </c>
+      <c r="K21" s="14">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
+        <v>4.9175036040234108</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0.89883299999999999</v>
+      </c>
+      <c r="M21" s="14">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="J21" s="17">
+        <v>5.7933564967018345</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1.8288500000000001</v>
+      </c>
+      <c r="O21" s="14">
         <f t="shared" si="5"/>
-        <v>4.6590909090909083</v>
-      </c>
-      <c r="K21" s="14">
+        <v>4.9277857670120566</v>
+      </c>
+      <c r="P21" s="18">
+        <v>0.78692300000000004</v>
+      </c>
+      <c r="Q21" s="14">
         <f t="shared" si="6"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="7"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="M21" s="14">
-        <f t="shared" si="8"/>
-        <v>14.300000000000001</v>
-      </c>
-      <c r="N21" s="17">
-        <f t="shared" si="9"/>
-        <v>5.3947368421052628</v>
-      </c>
-      <c r="O21" s="14">
-        <f t="shared" si="10"/>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="P21" s="18">
-        <f t="shared" si="11"/>
-        <v>1.0526315789473684</v>
-      </c>
-      <c r="Q21" s="14">
-        <f t="shared" si="12"/>
-        <v>12.350000000000001</v>
-      </c>
+        <v>6.6172420935720515</v>
+      </c>
+      <c r="S21">
+        <v>20</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21">
+        <v>9.012181</v>
+      </c>
+      <c r="Z21">
+        <v>1.924296</v>
+      </c>
+      <c r="AA21">
+        <v>1.8326739999999999</v>
+      </c>
+      <c r="AB21">
+        <v>1.8288500000000001</v>
+      </c>
+      <c r="AC21"/>
+      <c r="AD21">
+        <v>20</v>
+      </c>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
     </row>
     <row r="22" ht="12.6" customHeight="1">
       <c r="B22" s="19">
@@ -5295,59 +6140,100 @@
         <v>21</v>
       </c>
       <c r="D22" s="15">
-        <v>82</v>
+        <v>9.038017</v>
       </c>
       <c r="E22" s="16">
-        <v>13</v>
+        <v>5.14879</v>
       </c>
       <c r="F22" s="17">
+        <v>2.2150129999999999</v>
+      </c>
+      <c r="G22" s="20">
         <f t="shared" si="1"/>
-        <v>4.8809523809523805</v>
-      </c>
-      <c r="G22" s="20">
+        <v>4.0803449009102879</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1.056746</v>
+      </c>
+      <c r="I22" s="20">
         <f t="shared" si="2"/>
-        <v>16.800000000000001</v>
-      </c>
-      <c r="H22" s="18">
+        <v>4.8723061170801687</v>
+      </c>
+      <c r="J22" s="17">
+        <v>2.1934719999999999</v>
+      </c>
+      <c r="K22" s="14">
         <f t="shared" si="3"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="I22" s="20">
+        <v>4.120415943308144</v>
+      </c>
+      <c r="L22" s="18">
+        <v>1.1015509999999999</v>
+      </c>
+      <c r="M22" s="14">
         <f t="shared" si="4"/>
-        <v>13.65</v>
-      </c>
-      <c r="J22" s="17">
+        <v>4.6741276618150227</v>
+      </c>
+      <c r="N22" s="17">
+        <v>2.21977</v>
+      </c>
+      <c r="O22" s="14">
         <f t="shared" si="5"/>
-        <v>4.4372294372294361</v>
-      </c>
-      <c r="K22" s="14">
+        <v>4.0716006613297777</v>
+      </c>
+      <c r="P22" s="18">
+        <v>1.0251939999999999</v>
+      </c>
+      <c r="Q22" s="14">
         <f t="shared" si="6"/>
-        <v>18.480000000000004</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="7"/>
-        <v>0.86580086580086568</v>
-      </c>
-      <c r="M22" s="14">
-        <f t="shared" si="8"/>
-        <v>15.015000000000002</v>
-      </c>
-      <c r="N22" s="17">
-        <f t="shared" si="9"/>
-        <v>5.1378446115288217</v>
-      </c>
-      <c r="O22" s="14">
-        <f t="shared" si="10"/>
-        <v>15.960000000000001</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="11"/>
-        <v>1.0025062656641603</v>
-      </c>
-      <c r="Q22" s="14">
-        <f t="shared" si="12"/>
-        <v>12.967500000000001</v>
-      </c>
+        <v>5.0222592016730498</v>
+      </c>
+      <c r="S22">
+        <v>21</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22">
+        <v>9.038017</v>
+      </c>
+      <c r="Z22">
+        <v>2.2150129999999999</v>
+      </c>
+      <c r="AA22">
+        <v>2.1934719999999999</v>
+      </c>
+      <c r="AB22">
+        <v>2.21977</v>
+      </c>
+      <c r="AC22"/>
+      <c r="AD22">
+        <v>21</v>
+      </c>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
     </row>
     <row r="23" ht="12.6" customHeight="1">
       <c r="B23" s="19">
@@ -5358,59 +6244,100 @@
         <v>22</v>
       </c>
       <c r="D23" s="15">
-        <v>82</v>
+        <v>9.0285119999999992</v>
       </c>
       <c r="E23" s="16">
-        <v>13</v>
+        <v>5.1472189999999998</v>
       </c>
       <c r="F23" s="17">
+        <v>1.8957409999999999</v>
+      </c>
+      <c r="G23" s="20">
         <f t="shared" si="1"/>
-        <v>4.6590909090909083</v>
-      </c>
-      <c r="G23" s="20">
+        <v>4.7625239945752078</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0.92527199999999998</v>
+      </c>
+      <c r="I23" s="20">
         <f t="shared" si="2"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="H23" s="18">
+        <v>5.5629252803499938</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1.8762970000000001</v>
+      </c>
+      <c r="K23" s="14">
         <f t="shared" si="3"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="I23" s="20">
+        <v>4.8118778636857593</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.85130499999999998</v>
+      </c>
+      <c r="M23" s="14">
         <f t="shared" si="4"/>
-        <v>14.300000000000001</v>
-      </c>
-      <c r="J23" s="17">
+        <v>6.0462689635324587</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1.895184</v>
+      </c>
+      <c r="O23" s="14">
         <f t="shared" si="5"/>
-        <v>4.2355371900826437</v>
-      </c>
-      <c r="K23" s="14">
+        <v>4.7639237140034947</v>
+      </c>
+      <c r="P23" s="18">
+        <v>0.83091499999999996</v>
+      </c>
+      <c r="Q23" s="14">
         <f t="shared" si="6"/>
-        <v>19.360000000000003</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="7"/>
-        <v>0.82644628099173545</v>
-      </c>
-      <c r="M23" s="14">
-        <f t="shared" si="8"/>
-        <v>15.730000000000002</v>
-      </c>
-      <c r="N23" s="17">
-        <f t="shared" si="9"/>
-        <v>4.9043062200956928</v>
-      </c>
-      <c r="O23" s="14">
-        <f t="shared" si="10"/>
-        <v>16.720000000000002</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" si="11"/>
-        <v>0.9569377990430622</v>
-      </c>
-      <c r="Q23" s="14">
-        <f t="shared" si="12"/>
-        <v>13.585000000000001</v>
-      </c>
+        <v>6.1946396442476068</v>
+      </c>
+      <c r="S23">
+        <v>22</v>
+      </c>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23">
+        <v>9.0285119999999992</v>
+      </c>
+      <c r="Z23">
+        <v>1.8957409999999999</v>
+      </c>
+      <c r="AA23">
+        <v>1.8762970000000001</v>
+      </c>
+      <c r="AB23">
+        <v>1.895184</v>
+      </c>
+      <c r="AC23"/>
+      <c r="AD23">
+        <v>22</v>
+      </c>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
     </row>
     <row r="24" ht="12.6" customHeight="1">
       <c r="B24" s="19">
@@ -5421,59 +6348,100 @@
         <v>23</v>
       </c>
       <c r="D24" s="15">
-        <v>82</v>
+        <v>9.0221110000000007</v>
       </c>
       <c r="E24" s="16">
-        <v>13</v>
+        <v>5.1490260000000001</v>
       </c>
       <c r="F24" s="17">
+        <v>2.1523639999999999</v>
+      </c>
+      <c r="G24" s="20">
         <f t="shared" si="1"/>
-        <v>4.4565217391304346</v>
-      </c>
-      <c r="G24" s="20">
+        <v>4.1917217533837219</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1.0038039999999999</v>
+      </c>
+      <c r="I24" s="20">
         <f t="shared" si="2"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="H24" s="18">
+        <v>5.1295133312877814</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2.0681159999999998</v>
+      </c>
+      <c r="K24" s="14">
         <f t="shared" si="3"/>
-        <v>0.86956521739130421</v>
-      </c>
-      <c r="I24" s="20">
+        <v>4.3624782168891887</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0.93955</v>
+      </c>
+      <c r="M24" s="14">
         <f t="shared" si="4"/>
-        <v>14.950000000000003</v>
-      </c>
-      <c r="J24" s="17">
+        <v>5.4803107870789205</v>
+      </c>
+      <c r="N24" s="17">
+        <v>2.127958</v>
+      </c>
+      <c r="O24" s="14">
         <f t="shared" si="5"/>
-        <v>4.0513833992094854</v>
-      </c>
-      <c r="K24" s="14">
+        <v>4.2397974960032112</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0.96593200000000001</v>
+      </c>
+      <c r="Q24" s="14">
         <f t="shared" si="6"/>
-        <v>20.240000000000002</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="7"/>
-        <v>0.79051383399209463</v>
-      </c>
-      <c r="M24" s="14">
-        <f t="shared" si="8"/>
-        <v>16.445000000000004</v>
-      </c>
-      <c r="N24" s="17">
-        <f t="shared" si="9"/>
-        <v>4.6910755148741421</v>
-      </c>
-      <c r="O24" s="14">
-        <f t="shared" si="10"/>
-        <v>17.48</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="11"/>
-        <v>0.91533180778032031</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="12"/>
-        <v>14.202500000000001</v>
-      </c>
+        <v>5.3306298994132089</v>
+      </c>
+      <c r="S24">
+        <v>23</v>
+      </c>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24">
+        <v>9.0221110000000007</v>
+      </c>
+      <c r="Z24">
+        <v>2.1523639999999999</v>
+      </c>
+      <c r="AA24">
+        <v>2.0681159999999998</v>
+      </c>
+      <c r="AB24">
+        <v>2.127958</v>
+      </c>
+      <c r="AC24"/>
+      <c r="AD24">
+        <v>23</v>
+      </c>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
+      <c r="BF24"/>
+      <c r="BG24"/>
     </row>
     <row r="25" ht="12.6" customHeight="1">
       <c r="B25" s="19">
@@ -5484,59 +6452,100 @@
         <v>24</v>
       </c>
       <c r="D25" s="15">
-        <v>82</v>
+        <v>9.2590219999999999</v>
       </c>
       <c r="E25" s="16">
-        <v>13</v>
+        <v>5.1520849999999996</v>
       </c>
       <c r="F25" s="17">
+        <v>2.0356350000000001</v>
+      </c>
+      <c r="G25" s="20">
         <f t="shared" si="1"/>
-        <v>4.270833333333333</v>
-      </c>
-      <c r="G25" s="20">
+        <v>4.5484686596565691</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.90304499999999999</v>
+      </c>
+      <c r="I25" s="20">
         <f t="shared" si="2"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="H25" s="18">
+        <v>5.7052361731696646</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2.0711599999999999</v>
+      </c>
+      <c r="K25" s="14">
         <f t="shared" si="3"/>
-        <v>0.83333333333333326</v>
-      </c>
-      <c r="I25" s="20">
+        <v>4.4704523069197943</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1.104884</v>
+      </c>
+      <c r="M25" s="14">
         <f t="shared" si="4"/>
-        <v>15.600000000000001</v>
-      </c>
-      <c r="J25" s="17">
+        <v>4.6630098725296047</v>
+      </c>
+      <c r="N25" s="17">
+        <v>2.122096</v>
+      </c>
+      <c r="O25" s="14">
         <f t="shared" si="5"/>
-        <v>3.8825757575757569</v>
-      </c>
-      <c r="K25" s="14">
+        <v>4.3631494522396723</v>
+      </c>
+      <c r="P25" s="18">
+        <v>0.91244499999999995</v>
+      </c>
+      <c r="Q25" s="14">
         <f t="shared" si="6"/>
-        <v>21.120000000000005</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="7"/>
-        <v>0.75757575757575746</v>
-      </c>
-      <c r="M25" s="14">
-        <f t="shared" si="8"/>
-        <v>17.160000000000004</v>
-      </c>
-      <c r="N25" s="17">
-        <f t="shared" si="9"/>
-        <v>4.4956140350877192</v>
-      </c>
-      <c r="O25" s="14">
-        <f t="shared" si="10"/>
-        <v>18.240000000000002</v>
-      </c>
-      <c r="P25" s="18">
-        <f t="shared" si="11"/>
-        <v>0.8771929824561403</v>
-      </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="12"/>
-        <v>14.82</v>
-      </c>
+        <v>5.6464608825737441</v>
+      </c>
+      <c r="S25">
+        <v>24</v>
+      </c>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25">
+        <v>9.2590219999999999</v>
+      </c>
+      <c r="Z25">
+        <v>2.0356350000000001</v>
+      </c>
+      <c r="AA25">
+        <v>2.0711599999999999</v>
+      </c>
+      <c r="AB25">
+        <v>2.122096</v>
+      </c>
+      <c r="AC25"/>
+      <c r="AD25">
+        <v>24</v>
+      </c>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
+      <c r="BF25"/>
+      <c r="BG25"/>
     </row>
     <row r="26" ht="12.6" customHeight="1">
       <c r="B26" s="19">
@@ -5547,59 +6556,100 @@
         <v>25</v>
       </c>
       <c r="D26" s="15">
-        <v>82</v>
+        <v>9.109477</v>
       </c>
       <c r="E26" s="16">
-        <v>13</v>
+        <v>5.2023650000000004</v>
       </c>
       <c r="F26" s="17">
+        <v>1.88341</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G26" s="20">
+        <v>4.8366935505280315</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.88066999999999995</v>
+      </c>
+      <c r="I26" s="20">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="H26" s="18">
+        <v>5.9072808202845568</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1.8262130000000001</v>
+      </c>
+      <c r="K26" s="14">
         <f t="shared" si="3"/>
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="I26" s="20">
+        <v>4.9881788159431562</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1.0651090000000001</v>
+      </c>
+      <c r="M26" s="14">
         <f t="shared" si="4"/>
-        <v>16.25</v>
-      </c>
-      <c r="J26" s="17">
+        <v>4.8843498646617389</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1.8848959999999999</v>
+      </c>
+      <c r="O26" s="14">
         <f t="shared" si="5"/>
-        <v>3.7272727272727266</v>
-      </c>
-      <c r="K26" s="14">
+        <v>4.8328804347826093</v>
+      </c>
+      <c r="P26" s="18">
+        <v>0.82561899999999999</v>
+      </c>
+      <c r="Q26" s="14">
         <f t="shared" si="6"/>
-        <v>22.000000000000004</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="7"/>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="M26" s="14">
-        <f t="shared" si="8"/>
-        <v>17.875</v>
-      </c>
-      <c r="N26" s="17">
-        <f t="shared" si="9"/>
-        <v>4.3157894736842106</v>
-      </c>
-      <c r="O26" s="14">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="P26" s="18">
-        <f t="shared" si="11"/>
-        <v>0.8421052631578948</v>
-      </c>
-      <c r="Q26" s="14">
-        <f t="shared" si="12"/>
-        <v>15.437499999999998</v>
-      </c>
+        <v>6.30116918336424</v>
+      </c>
+      <c r="S26">
+        <v>25</v>
+      </c>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26">
+        <v>9.109477</v>
+      </c>
+      <c r="Z26">
+        <v>1.88341</v>
+      </c>
+      <c r="AA26">
+        <v>1.8262130000000001</v>
+      </c>
+      <c r="AB26">
+        <v>1.8848959999999999</v>
+      </c>
+      <c r="AC26"/>
+      <c r="AD26">
+        <v>25</v>
+      </c>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
+      <c r="BF26"/>
+      <c r="BG26"/>
     </row>
     <row r="27" ht="12.6" customHeight="1">
       <c r="B27" s="19">
@@ -5610,59 +6660,100 @@
         <v>26</v>
       </c>
       <c r="D27" s="15">
-        <v>82</v>
+        <v>9.1952630000000006</v>
       </c>
       <c r="E27" s="16">
-        <v>13</v>
+        <v>5.2500229999999997</v>
       </c>
       <c r="F27" s="17">
+        <v>2.0235240000000001</v>
+      </c>
+      <c r="G27" s="20">
         <f t="shared" si="1"/>
-        <v>3.9423076923076921</v>
-      </c>
-      <c r="G27" s="20">
+        <v>4.5441828216517326</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.97121900000000005</v>
+      </c>
+      <c r="I27" s="20">
         <f t="shared" si="2"/>
-        <v>20.800000000000001</v>
-      </c>
-      <c r="H27" s="18">
+        <v>5.4056016202318933</v>
+      </c>
+      <c r="J27" s="17">
+        <v>2.0163730000000002</v>
+      </c>
+      <c r="K27" s="14">
         <f t="shared" si="3"/>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="I27" s="20">
+        <v>4.5602986153851495</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1.008175</v>
+      </c>
+      <c r="M27" s="14">
         <f t="shared" si="4"/>
-        <v>16.900000000000002</v>
-      </c>
-      <c r="J27" s="17">
+        <v>5.2074520792521133</v>
+      </c>
+      <c r="N27" s="17">
+        <v>2.0323180000000001</v>
+      </c>
+      <c r="O27" s="14">
         <f t="shared" si="5"/>
-        <v>3.5839160839160833</v>
-      </c>
-      <c r="K27" s="14">
+        <v>4.5245197847974579</v>
+      </c>
+      <c r="P27" s="18">
+        <v>0.88051400000000002</v>
+      </c>
+      <c r="Q27" s="14">
         <f t="shared" si="6"/>
-        <v>22.880000000000003</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="7"/>
-        <v>0.69930069930069916</v>
-      </c>
-      <c r="M27" s="14">
-        <f t="shared" si="8"/>
-        <v>18.590000000000003</v>
-      </c>
-      <c r="N27" s="17">
-        <f t="shared" si="9"/>
-        <v>4.1497975708502022</v>
-      </c>
-      <c r="O27" s="14">
-        <f t="shared" si="10"/>
-        <v>19.760000000000002</v>
-      </c>
-      <c r="P27" s="18">
-        <f t="shared" si="11"/>
-        <v>0.80971659919028338</v>
-      </c>
-      <c r="Q27" s="14">
-        <f t="shared" si="12"/>
-        <v>16.055</v>
-      </c>
+        <v>5.9624526129056434</v>
+      </c>
+      <c r="S27">
+        <v>26</v>
+      </c>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27">
+        <v>9.1952630000000006</v>
+      </c>
+      <c r="Z27">
+        <v>2.0235240000000001</v>
+      </c>
+      <c r="AA27">
+        <v>2.0163730000000002</v>
+      </c>
+      <c r="AB27">
+        <v>2.0323180000000001</v>
+      </c>
+      <c r="AC27"/>
+      <c r="AD27">
+        <v>26</v>
+      </c>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
     </row>
     <row r="28" ht="12.6" customHeight="1">
       <c r="B28" s="19">
@@ -5673,59 +6764,100 @@
         <v>27</v>
       </c>
       <c r="D28" s="15">
-        <v>82</v>
+        <v>9.0121649999999995</v>
       </c>
       <c r="E28" s="16">
-        <v>13</v>
+        <v>5.1488880000000004</v>
       </c>
       <c r="F28" s="17">
+        <v>2.012003</v>
+      </c>
+      <c r="G28" s="20">
         <f t="shared" si="1"/>
-        <v>3.7962962962962963</v>
-      </c>
-      <c r="G28" s="20">
+        <v>4.4792005777327368</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0.97863</v>
+      </c>
+      <c r="I28" s="20">
         <f t="shared" si="2"/>
-        <v>21.600000000000001</v>
-      </c>
-      <c r="H28" s="18">
+        <v>5.2613224609913862</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1.993857</v>
+      </c>
+      <c r="K28" s="14">
         <f t="shared" si="3"/>
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="I28" s="20">
+        <v>4.5199655742613434</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0.89539400000000002</v>
+      </c>
+      <c r="M28" s="14">
         <f t="shared" si="4"/>
-        <v>17.550000000000001</v>
-      </c>
-      <c r="J28" s="17">
+        <v>5.7504160179764439</v>
+      </c>
+      <c r="N28" s="17">
+        <v>2.0230519999999999</v>
+      </c>
+      <c r="O28" s="14">
         <f t="shared" si="5"/>
-        <v>3.4511784511784507</v>
-      </c>
-      <c r="K28" s="14">
+        <v>4.4547371990438211</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0.89095500000000005</v>
+      </c>
+      <c r="Q28" s="14">
         <f t="shared" si="6"/>
-        <v>23.760000000000005</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" si="7"/>
-        <v>0.67340067340067333</v>
-      </c>
-      <c r="M28" s="14">
-        <f t="shared" si="8"/>
-        <v>19.305000000000003</v>
-      </c>
-      <c r="N28" s="17">
-        <f t="shared" si="9"/>
-        <v>3.9961013645224175</v>
-      </c>
-      <c r="O28" s="14">
-        <f t="shared" si="10"/>
-        <v>20.52</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" si="11"/>
-        <v>0.77972709551656916</v>
-      </c>
-      <c r="Q28" s="14">
-        <f t="shared" si="12"/>
-        <v>16.672499999999999</v>
-      </c>
+        <v>5.7790662828088966</v>
+      </c>
+      <c r="S28">
+        <v>27</v>
+      </c>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28">
+        <v>9.0121649999999995</v>
+      </c>
+      <c r="Z28">
+        <v>2.012003</v>
+      </c>
+      <c r="AA28">
+        <v>1.993857</v>
+      </c>
+      <c r="AB28">
+        <v>2.0230519999999999</v>
+      </c>
+      <c r="AC28"/>
+      <c r="AD28">
+        <v>27</v>
+      </c>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
     </row>
     <row r="29" ht="12.6" customHeight="1">
       <c r="B29" s="19">
@@ -5736,59 +6868,100 @@
         <v>28</v>
       </c>
       <c r="D29" s="15">
-        <v>82</v>
+        <v>9.0207320000000006</v>
       </c>
       <c r="E29" s="16">
-        <v>13</v>
+        <v>5.1498059999999999</v>
       </c>
       <c r="F29" s="17">
+        <v>1.9616849999999999</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="1"/>
-        <v>3.6607142857142851</v>
-      </c>
-      <c r="G29" s="20">
+        <v>4.5984610169318731</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0.88937299999999997</v>
+      </c>
+      <c r="I29" s="20">
         <f t="shared" si="2"/>
-        <v>22.400000000000002</v>
-      </c>
-      <c r="H29" s="18">
+        <v>5.7903781652917283</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1.8579650000000001</v>
+      </c>
+      <c r="K29" s="14">
         <f t="shared" si="3"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I29" s="20">
+        <v>4.8551678852938567</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0.78386599999999995</v>
+      </c>
+      <c r="M29" s="14">
         <f t="shared" si="4"/>
-        <v>18.199999999999999</v>
-      </c>
-      <c r="J29" s="17">
+        <v>6.5697529934963379</v>
+      </c>
+      <c r="N29" s="17">
+        <v>1.8253900000000001</v>
+      </c>
+      <c r="O29" s="14">
         <f t="shared" si="5"/>
-        <v>3.3279220779220773</v>
-      </c>
-      <c r="K29" s="14">
+        <v>4.94181079111861</v>
+      </c>
+      <c r="P29" s="18">
+        <v>0.74315200000000003</v>
+      </c>
+      <c r="Q29" s="14">
         <f t="shared" si="6"/>
-        <v>24.640000000000004</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="7"/>
-        <v>0.64935064935064934</v>
-      </c>
-      <c r="M29" s="14">
-        <f t="shared" si="8"/>
-        <v>20.02</v>
-      </c>
-      <c r="N29" s="17">
-        <f t="shared" si="9"/>
-        <v>3.8533834586466162</v>
-      </c>
-      <c r="O29" s="14">
-        <f t="shared" si="10"/>
-        <v>21.280000000000001</v>
-      </c>
-      <c r="P29" s="18">
-        <f t="shared" si="11"/>
-        <v>0.75187969924812037</v>
-      </c>
-      <c r="Q29" s="14">
-        <f t="shared" si="12"/>
-        <v>17.289999999999999</v>
-      </c>
+        <v>6.9296806036988388</v>
+      </c>
+      <c r="S29">
+        <v>28</v>
+      </c>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29">
+        <v>9.0207320000000006</v>
+      </c>
+      <c r="Z29">
+        <v>1.9616849999999999</v>
+      </c>
+      <c r="AA29">
+        <v>1.8579650000000001</v>
+      </c>
+      <c r="AB29">
+        <v>1.8253900000000001</v>
+      </c>
+      <c r="AC29"/>
+      <c r="AD29">
+        <v>28</v>
+      </c>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
     </row>
     <row r="30" ht="12.6" customHeight="1">
       <c r="B30" s="19">
@@ -5799,59 +6972,100 @@
         <v>29</v>
       </c>
       <c r="D30" s="15">
-        <v>82</v>
+        <v>9.1473669999999991</v>
       </c>
       <c r="E30" s="16">
-        <v>13</v>
+        <v>5.2572530000000004</v>
       </c>
       <c r="F30" s="17">
+        <v>2.0136319999999999</v>
+      </c>
+      <c r="G30" s="20">
         <f t="shared" si="1"/>
-        <v>3.5344827586206895</v>
-      </c>
-      <c r="G30" s="20">
+        <v>4.5427203183103959</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0.93517799999999995</v>
+      </c>
+      <c r="I30" s="20">
         <f t="shared" si="2"/>
-        <v>23.199999999999999</v>
-      </c>
-      <c r="H30" s="18">
+        <v>5.6216602614689402</v>
+      </c>
+      <c r="J30" s="17">
+        <v>1.918841</v>
+      </c>
+      <c r="K30" s="14">
         <f t="shared" si="3"/>
-        <v>0.68965517241379304</v>
-      </c>
-      <c r="I30" s="20">
+        <v>4.767131304782418</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0.87127299999999996</v>
+      </c>
+      <c r="M30" s="14">
         <f t="shared" si="4"/>
-        <v>18.850000000000001</v>
-      </c>
-      <c r="J30" s="17">
+        <v>6.0339904943685854</v>
+      </c>
+      <c r="N30" s="17">
+        <v>2.0010720000000002</v>
+      </c>
+      <c r="O30" s="14">
         <f t="shared" si="5"/>
-        <v>3.2131661442006267</v>
-      </c>
-      <c r="K30" s="14">
+        <v>4.5712333189410463</v>
+      </c>
+      <c r="P30" s="18">
+        <v>0.83334299999999994</v>
+      </c>
+      <c r="Q30" s="14">
         <f t="shared" si="6"/>
-        <v>25.520000000000003</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="7"/>
-        <v>0.62695924764890276</v>
-      </c>
-      <c r="M30" s="14">
-        <f t="shared" si="8"/>
-        <v>20.735000000000003</v>
-      </c>
-      <c r="N30" s="17">
-        <f t="shared" si="9"/>
-        <v>3.7205081669691471</v>
-      </c>
-      <c r="O30" s="14">
-        <f t="shared" si="10"/>
-        <v>22.039999999999999</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="11"/>
-        <v>0.72595281306715065</v>
-      </c>
-      <c r="Q30" s="14">
-        <f t="shared" si="12"/>
-        <v>17.907499999999999</v>
-      </c>
+        <v>6.3086304198871304</v>
+      </c>
+      <c r="S30">
+        <v>29</v>
+      </c>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30">
+        <v>9.1473669999999991</v>
+      </c>
+      <c r="Z30">
+        <v>2.0136319999999999</v>
+      </c>
+      <c r="AA30">
+        <v>1.918841</v>
+      </c>
+      <c r="AB30">
+        <v>2.0010720000000002</v>
+      </c>
+      <c r="AC30"/>
+      <c r="AD30">
+        <v>29</v>
+      </c>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
     </row>
     <row r="31" ht="12.6" customHeight="1">
       <c r="B31" s="19">
@@ -5862,59 +7076,100 @@
         <v>30</v>
       </c>
       <c r="D31" s="15">
-        <v>82</v>
+        <v>9.0458870000000005</v>
       </c>
       <c r="E31" s="16">
-        <v>13</v>
+        <v>5.1706539999999999</v>
       </c>
       <c r="F31" s="17">
+        <v>1.8670599999999999</v>
+      </c>
+      <c r="G31" s="20">
         <f t="shared" si="1"/>
-        <v>3.4166666666666665</v>
-      </c>
-      <c r="G31" s="20">
+        <v>4.8449899842533188</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.93514799999999998</v>
+      </c>
+      <c r="I31" s="20">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="H31" s="18">
+        <v>5.5292360139785357</v>
+      </c>
+      <c r="J31" s="17">
+        <v>1.9054739999999999</v>
+      </c>
+      <c r="K31" s="14">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I31" s="20">
+        <v>4.7473158909541677</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0.81138399999999999</v>
+      </c>
+      <c r="M31" s="14">
         <f t="shared" si="4"/>
-        <v>19.5</v>
-      </c>
-      <c r="J31" s="17">
+        <v>6.3726349052976152</v>
+      </c>
+      <c r="N31" s="17">
+        <v>1.9545570000000001</v>
+      </c>
+      <c r="O31" s="14">
         <f t="shared" si="5"/>
-        <v>3.1060606060606055</v>
-      </c>
-      <c r="K31" s="14">
+        <v>4.6281008944737865</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0.80386500000000005</v>
+      </c>
+      <c r="Q31" s="14">
         <f t="shared" si="6"/>
-        <v>26.400000000000006</v>
-      </c>
-      <c r="L31" s="18">
-        <f t="shared" si="7"/>
-        <v>0.60606060606060597</v>
-      </c>
-      <c r="M31" s="14">
-        <f t="shared" si="8"/>
-        <v>21.450000000000003</v>
-      </c>
-      <c r="N31" s="17">
-        <f t="shared" si="9"/>
-        <v>3.5964912280701755</v>
-      </c>
-      <c r="O31" s="14">
-        <f t="shared" si="10"/>
-        <v>22.800000000000001</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="11"/>
-        <v>0.70175438596491224</v>
-      </c>
-      <c r="Q31" s="14">
-        <f t="shared" si="12"/>
-        <v>18.525000000000002</v>
-      </c>
+        <v>6.4322417321316383</v>
+      </c>
+      <c r="S31">
+        <v>30</v>
+      </c>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31">
+        <v>9.0458870000000005</v>
+      </c>
+      <c r="Z31">
+        <v>1.8670599999999999</v>
+      </c>
+      <c r="AA31">
+        <v>1.9054739999999999</v>
+      </c>
+      <c r="AB31">
+        <v>1.9545570000000001</v>
+      </c>
+      <c r="AC31"/>
+      <c r="AD31">
+        <v>30</v>
+      </c>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
     </row>
     <row r="32" ht="12.6" customHeight="1">
       <c r="B32" s="19">
@@ -5925,59 +7180,100 @@
         <v>31</v>
       </c>
       <c r="D32" s="15">
-        <v>82</v>
+        <v>9.0583860000000005</v>
       </c>
       <c r="E32" s="16">
-        <v>13</v>
+        <v>5.184196</v>
       </c>
       <c r="F32" s="17">
+        <v>1.9463859999999999</v>
+      </c>
+      <c r="G32" s="20">
         <f t="shared" si="1"/>
-        <v>3.3064516129032255</v>
-      </c>
-      <c r="G32" s="20">
+        <v>4.6539514772506587</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0.94480799999999998</v>
+      </c>
+      <c r="I32" s="20">
         <f t="shared" si="2"/>
-        <v>24.800000000000001</v>
-      </c>
-      <c r="H32" s="18">
+        <v>5.4870365195891653</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1.9083889999999999</v>
+      </c>
+      <c r="K32" s="14">
         <f t="shared" si="3"/>
-        <v>0.64516129032258063</v>
-      </c>
-      <c r="I32" s="20">
+        <v>4.746614028900817</v>
+      </c>
+      <c r="L32" s="18">
+        <v>1.0077970000000001</v>
+      </c>
+      <c r="M32" s="14">
         <f t="shared" si="4"/>
-        <v>20.150000000000002</v>
-      </c>
-      <c r="J32" s="17">
+        <v>5.1440875493775033</v>
+      </c>
+      <c r="N32" s="17">
+        <v>2.012982</v>
+      </c>
+      <c r="O32" s="14">
         <f t="shared" si="5"/>
-        <v>3.0058651026392957</v>
-      </c>
-      <c r="K32" s="14">
+        <v>4.4999836064107877</v>
+      </c>
+      <c r="P32" s="18">
+        <v>0.86795900000000004</v>
+      </c>
+      <c r="Q32" s="14">
         <f t="shared" si="6"/>
-        <v>27.280000000000005</v>
-      </c>
-      <c r="L32" s="18">
-        <f t="shared" si="7"/>
-        <v>0.58651026392961869</v>
-      </c>
-      <c r="M32" s="14">
-        <f t="shared" si="8"/>
-        <v>22.165000000000003</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" si="9"/>
-        <v>3.4804753820033953</v>
-      </c>
-      <c r="O32" s="14">
-        <f t="shared" si="10"/>
-        <v>23.560000000000002</v>
-      </c>
-      <c r="P32" s="18">
-        <f t="shared" si="11"/>
-        <v>0.6791171477079796</v>
-      </c>
-      <c r="Q32" s="14">
-        <f t="shared" si="12"/>
-        <v>19.142500000000002</v>
-      </c>
+        <v>5.9728581649594048</v>
+      </c>
+      <c r="S32">
+        <v>31</v>
+      </c>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32">
+        <v>9.0583860000000005</v>
+      </c>
+      <c r="Z32">
+        <v>1.9463859999999999</v>
+      </c>
+      <c r="AA32">
+        <v>1.9083889999999999</v>
+      </c>
+      <c r="AB32">
+        <v>2.012982</v>
+      </c>
+      <c r="AC32"/>
+      <c r="AD32">
+        <v>31</v>
+      </c>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
     </row>
     <row r="33" ht="12.6" customHeight="1">
       <c r="B33" s="19">
@@ -5988,59 +7284,100 @@
         <v>32</v>
       </c>
       <c r="D33" s="15">
-        <v>82</v>
+        <v>9.27182</v>
       </c>
       <c r="E33" s="16">
-        <v>13</v>
+        <v>5.1580380000000003</v>
       </c>
       <c r="F33" s="17">
+        <v>1.901527</v>
+      </c>
+      <c r="G33" s="20">
         <f t="shared" si="1"/>
-        <v>3.203125</v>
-      </c>
-      <c r="G33" s="20">
+        <v>4.8759865097892376</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0.96315499999999998</v>
+      </c>
+      <c r="I33" s="20">
         <f t="shared" si="2"/>
-        <v>25.600000000000001</v>
-      </c>
-      <c r="H33" s="18">
+        <v>5.3553560953325272</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1.897791</v>
+      </c>
+      <c r="K33" s="14">
         <f t="shared" si="3"/>
-        <v>0.625</v>
-      </c>
-      <c r="I33" s="20">
+        <v>4.8855853990244444</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0.84519100000000003</v>
+      </c>
+      <c r="M33" s="14">
         <f t="shared" si="4"/>
-        <v>20.800000000000001</v>
-      </c>
-      <c r="J33" s="17">
+        <v>6.1028075310787742</v>
+      </c>
+      <c r="N33" s="17">
+        <v>1.9928859999999999</v>
+      </c>
+      <c r="O33" s="14">
         <f t="shared" si="5"/>
-        <v>2.9119318181818179</v>
-      </c>
-      <c r="K33" s="14">
+        <v>4.6524587959371484</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0.82819799999999999</v>
+      </c>
+      <c r="Q33" s="14">
         <f t="shared" si="6"/>
-        <v>28.160000000000004</v>
-      </c>
-      <c r="L33" s="18">
-        <f t="shared" si="7"/>
-        <v>0.56818181818181812</v>
-      </c>
-      <c r="M33" s="14">
-        <f t="shared" si="8"/>
-        <v>22.880000000000003</v>
-      </c>
-      <c r="N33" s="17">
-        <f t="shared" si="9"/>
-        <v>3.3717105263157898</v>
-      </c>
-      <c r="O33" s="14">
-        <f t="shared" si="10"/>
-        <v>24.319999999999997</v>
-      </c>
-      <c r="P33" s="18">
-        <f t="shared" si="11"/>
-        <v>0.65789473684210531</v>
-      </c>
-      <c r="Q33" s="14">
-        <f t="shared" si="12"/>
-        <v>19.759999999999998</v>
-      </c>
+        <v>6.2280251823839228</v>
+      </c>
+      <c r="S33">
+        <v>32</v>
+      </c>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33">
+        <v>9.27182</v>
+      </c>
+      <c r="Z33">
+        <v>1.901527</v>
+      </c>
+      <c r="AA33">
+        <v>1.897791</v>
+      </c>
+      <c r="AB33">
+        <v>1.9928859999999999</v>
+      </c>
+      <c r="AC33"/>
+      <c r="AD33">
+        <v>32</v>
+      </c>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
     </row>
     <row r="34" ht="12.6" customHeight="1">
       <c r="B34" s="19">
@@ -6051,59 +7388,100 @@
         <v>33</v>
       </c>
       <c r="D34" s="15">
-        <v>82</v>
+        <v>9.1359449999999995</v>
       </c>
       <c r="E34" s="16">
-        <v>13</v>
+        <v>5.177467</v>
       </c>
       <c r="F34" s="17">
+        <v>1.7068080000000001</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="1"/>
-        <v>3.106060606060606</v>
-      </c>
-      <c r="G34" s="20">
+        <v>5.3526495071501889</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0.81100899999999998</v>
+      </c>
+      <c r="I34" s="20">
         <f t="shared" si="2"/>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="H34" s="18">
+        <v>6.3839821752902868</v>
+      </c>
+      <c r="J34" s="17">
+        <v>1.756076</v>
+      </c>
+      <c r="K34" s="14">
         <f t="shared" si="3"/>
-        <v>0.60606060606060597</v>
-      </c>
-      <c r="I34" s="20">
+        <v>5.2024769998564979</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0.73655300000000001</v>
+      </c>
+      <c r="M34" s="14">
         <f t="shared" si="4"/>
-        <v>21.450000000000003</v>
-      </c>
-      <c r="J34" s="17">
+        <v>7.0293203611960031</v>
+      </c>
+      <c r="N34" s="17">
+        <v>1.726988</v>
+      </c>
+      <c r="O34" s="14">
         <f t="shared" si="5"/>
-        <v>2.823691460055096</v>
-      </c>
-      <c r="K34" s="14">
+        <v>5.2901033475623453</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0.73116499999999995</v>
+      </c>
+      <c r="Q34" s="14">
         <f t="shared" si="6"/>
-        <v>29.040000000000006</v>
-      </c>
-      <c r="L34" s="18">
-        <f t="shared" si="7"/>
-        <v>0.5509641873278236</v>
-      </c>
-      <c r="M34" s="14">
-        <f t="shared" si="8"/>
-        <v>23.595000000000002</v>
-      </c>
-      <c r="N34" s="17">
-        <f t="shared" si="9"/>
-        <v>3.269537480063796</v>
-      </c>
-      <c r="O34" s="14">
-        <f t="shared" si="10"/>
-        <v>25.079999999999998</v>
-      </c>
-      <c r="P34" s="18">
-        <f t="shared" si="11"/>
-        <v>0.63795853269537472</v>
-      </c>
-      <c r="Q34" s="14">
-        <f t="shared" si="12"/>
-        <v>20.377500000000001</v>
-      </c>
+        <v>7.0811198566671001</v>
+      </c>
+      <c r="S34">
+        <v>33</v>
+      </c>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34">
+        <v>9.1359449999999995</v>
+      </c>
+      <c r="Z34">
+        <v>1.7068080000000001</v>
+      </c>
+      <c r="AA34">
+        <v>1.756076</v>
+      </c>
+      <c r="AB34">
+        <v>1.726988</v>
+      </c>
+      <c r="AC34"/>
+      <c r="AD34">
+        <v>33</v>
+      </c>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
     </row>
     <row r="35" ht="12.6" customHeight="1">
       <c r="B35" s="19">
@@ -6114,59 +7492,100 @@
         <v>34</v>
       </c>
       <c r="D35" s="15">
-        <v>82</v>
+        <v>9.0560519999999993</v>
       </c>
       <c r="E35" s="16">
-        <v>13</v>
+        <v>5.2072310000000002</v>
       </c>
       <c r="F35" s="17">
+        <v>1.922671</v>
+      </c>
+      <c r="G35" s="20">
         <f t="shared" si="1"/>
-        <v>3.0147058823529407</v>
-      </c>
-      <c r="G35" s="20">
+        <v>4.7101412566164464</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0.92486800000000002</v>
+      </c>
+      <c r="I35" s="20">
         <f t="shared" si="2"/>
-        <v>27.200000000000003</v>
-      </c>
-      <c r="H35" s="18">
+        <v>5.6302423697219499</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1.8346340000000001</v>
+      </c>
+      <c r="K35" s="14">
         <f t="shared" si="3"/>
-        <v>0.58823529411764697</v>
-      </c>
-      <c r="I35" s="20">
+        <v>4.9361627441767668</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0.81893800000000005</v>
+      </c>
+      <c r="M35" s="14">
         <f t="shared" si="4"/>
-        <v>22.100000000000005</v>
-      </c>
-      <c r="J35" s="17">
+        <v>6.358516761952675</v>
+      </c>
+      <c r="N35" s="17">
+        <v>1.9733830000000001</v>
+      </c>
+      <c r="O35" s="14">
         <f t="shared" si="5"/>
-        <v>2.7406417112299457</v>
-      </c>
-      <c r="K35" s="14">
+        <v>4.5891000378537763</v>
+      </c>
+      <c r="P35" s="18">
+        <v>0.90980700000000003</v>
+      </c>
+      <c r="Q35" s="14">
         <f t="shared" si="6"/>
-        <v>29.920000000000009</v>
-      </c>
-      <c r="L35" s="18">
-        <f t="shared" si="7"/>
-        <v>0.53475935828876997</v>
-      </c>
-      <c r="M35" s="14">
-        <f t="shared" si="8"/>
-        <v>24.310000000000002</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="9"/>
-        <v>3.1733746130030958</v>
-      </c>
-      <c r="O35" s="14">
-        <f t="shared" si="10"/>
-        <v>25.840000000000003</v>
-      </c>
-      <c r="P35" s="18">
-        <f t="shared" si="11"/>
-        <v>0.61919504643962842</v>
-      </c>
-      <c r="Q35" s="14">
-        <f t="shared" si="12"/>
-        <v>20.995000000000001</v>
-      </c>
+        <v>5.7234457417891926</v>
+      </c>
+      <c r="S35">
+        <v>34</v>
+      </c>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35">
+        <v>9.0560519999999993</v>
+      </c>
+      <c r="Z35">
+        <v>1.922671</v>
+      </c>
+      <c r="AA35">
+        <v>1.8346340000000001</v>
+      </c>
+      <c r="AB35">
+        <v>1.9733830000000001</v>
+      </c>
+      <c r="AC35"/>
+      <c r="AD35">
+        <v>34</v>
+      </c>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
     </row>
     <row r="36" ht="12.6" customHeight="1">
       <c r="B36" s="19">
@@ -6177,59 +7596,100 @@
         <v>35</v>
       </c>
       <c r="D36" s="15">
-        <v>82</v>
+        <v>9.0694870000000005</v>
       </c>
       <c r="E36" s="16">
-        <v>13</v>
+        <v>5.2139980000000001</v>
       </c>
       <c r="F36" s="17">
+        <v>1.9648000000000001</v>
+      </c>
+      <c r="G36" s="20">
         <f t="shared" si="1"/>
-        <v>2.9285714285714284</v>
-      </c>
-      <c r="G36" s="20">
+        <v>4.6159848330618889</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1.041895</v>
+      </c>
+      <c r="I36" s="20">
         <f t="shared" si="2"/>
-        <v>28.000000000000004</v>
-      </c>
-      <c r="H36" s="18">
+        <v>5.0043411284246497</v>
+      </c>
+      <c r="J36" s="17">
+        <v>1.850492</v>
+      </c>
+      <c r="K36" s="14">
         <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="I36" s="20">
+        <v>4.9011219718863961</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0.87140399999999996</v>
+      </c>
+      <c r="M36" s="14">
         <f t="shared" si="4"/>
-        <v>22.75</v>
-      </c>
-      <c r="J36" s="17">
+        <v>5.9834451069767871</v>
+      </c>
+      <c r="N36" s="17">
+        <v>1.939921</v>
+      </c>
+      <c r="O36" s="14">
         <f t="shared" si="5"/>
-        <v>2.662337662337662</v>
-      </c>
-      <c r="K36" s="14">
+        <v>4.6751836801601714</v>
+      </c>
+      <c r="P36" s="18">
+        <v>0.85635700000000003</v>
+      </c>
+      <c r="Q36" s="14">
         <f t="shared" si="6"/>
-        <v>30.800000000000004</v>
-      </c>
-      <c r="L36" s="18">
-        <f t="shared" si="7"/>
-        <v>0.51948051948051943</v>
-      </c>
-      <c r="M36" s="14">
-        <f t="shared" si="8"/>
-        <v>25.025000000000002</v>
-      </c>
-      <c r="N36" s="17">
-        <f t="shared" si="9"/>
-        <v>3.0827067669172932</v>
-      </c>
-      <c r="O36" s="14">
-        <f t="shared" si="10"/>
-        <v>26.600000000000001</v>
-      </c>
-      <c r="P36" s="18">
-        <f t="shared" si="11"/>
-        <v>0.60150375939849621</v>
-      </c>
-      <c r="Q36" s="14">
-        <f t="shared" si="12"/>
-        <v>21.612500000000001</v>
-      </c>
+        <v>6.0885798796529951</v>
+      </c>
+      <c r="S36">
+        <v>35</v>
+      </c>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36">
+        <v>9.0694870000000005</v>
+      </c>
+      <c r="Z36">
+        <v>1.9648000000000001</v>
+      </c>
+      <c r="AA36">
+        <v>1.850492</v>
+      </c>
+      <c r="AB36">
+        <v>1.939921</v>
+      </c>
+      <c r="AC36"/>
+      <c r="AD36">
+        <v>35</v>
+      </c>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
     </row>
     <row r="37" ht="12.6" customHeight="1">
       <c r="B37" s="19">
@@ -6240,59 +7700,100 @@
         <v>36</v>
       </c>
       <c r="D37" s="15">
-        <v>82</v>
+        <v>9.0629430000000006</v>
       </c>
       <c r="E37" s="16">
-        <v>13</v>
+        <v>5.2340989999999996</v>
       </c>
       <c r="F37" s="17">
+        <v>1.8808910000000001</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="1"/>
-        <v>2.8472222222222219</v>
-      </c>
-      <c r="G37" s="20">
+        <v>4.8184307330940497</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0.85207500000000003</v>
+      </c>
+      <c r="I37" s="20">
         <f t="shared" si="2"/>
-        <v>28.800000000000004</v>
-      </c>
-      <c r="H37" s="18">
+        <v>6.1427679488307945</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1.8477110000000001</v>
+      </c>
+      <c r="K37" s="14">
         <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="I37" s="20">
+        <v>4.9049569981452725</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0.87029400000000001</v>
+      </c>
+      <c r="M37" s="14">
         <f t="shared" si="4"/>
-        <v>23.399999999999999</v>
-      </c>
-      <c r="J37" s="17">
+        <v>6.0141733712975149</v>
+      </c>
+      <c r="N37" s="17">
+        <v>1.933049</v>
+      </c>
+      <c r="O37" s="14">
         <f t="shared" si="5"/>
-        <v>2.5883838383838378</v>
-      </c>
-      <c r="K37" s="14">
+        <v>4.6884186588130978</v>
+      </c>
+      <c r="P37" s="18">
+        <v>0.83884899999999996</v>
+      </c>
+      <c r="Q37" s="14">
         <f t="shared" si="6"/>
-        <v>31.680000000000007</v>
-      </c>
-      <c r="L37" s="18">
-        <f t="shared" si="7"/>
-        <v>0.50505050505050508</v>
-      </c>
-      <c r="M37" s="14">
-        <f t="shared" si="8"/>
-        <v>25.739999999999998</v>
-      </c>
-      <c r="N37" s="17">
-        <f t="shared" si="9"/>
-        <v>2.9970760233918128</v>
-      </c>
-      <c r="O37" s="14">
-        <f t="shared" si="10"/>
-        <v>27.359999999999999</v>
-      </c>
-      <c r="P37" s="18">
-        <f t="shared" si="11"/>
-        <v>0.58479532163742698</v>
-      </c>
-      <c r="Q37" s="14">
-        <f t="shared" si="12"/>
-        <v>22.229999999999997</v>
-      </c>
+        <v>6.2396200031233269</v>
+      </c>
+      <c r="S37">
+        <v>36</v>
+      </c>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37">
+        <v>9.0629430000000006</v>
+      </c>
+      <c r="Z37">
+        <v>1.8808910000000001</v>
+      </c>
+      <c r="AA37">
+        <v>1.8477110000000001</v>
+      </c>
+      <c r="AB37">
+        <v>1.933049</v>
+      </c>
+      <c r="AC37"/>
+      <c r="AD37">
+        <v>36</v>
+      </c>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
     </row>
     <row r="38" ht="12.6" customHeight="1">
       <c r="B38" s="19">
@@ -6303,59 +7804,100 @@
         <v>37</v>
       </c>
       <c r="D38" s="15">
-        <v>82</v>
+        <v>9.1230980000000006</v>
       </c>
       <c r="E38" s="16">
-        <v>13</v>
+        <v>5.1498989999999996</v>
       </c>
       <c r="F38" s="17">
+        <v>1.9142250000000001</v>
+      </c>
+      <c r="G38" s="20">
         <f t="shared" si="1"/>
-        <v>2.7702702702702702</v>
-      </c>
-      <c r="G38" s="20">
+        <v>4.765948621504787</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0.84437799999999996</v>
+      </c>
+      <c r="I38" s="20">
         <f t="shared" si="2"/>
-        <v>29.600000000000001</v>
-      </c>
-      <c r="H38" s="18">
+        <v>6.099044503764901</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1.8365959999999999</v>
+      </c>
+      <c r="K38" s="14">
         <f t="shared" si="3"/>
-        <v>0.54054054054054057</v>
-      </c>
-      <c r="I38" s="20">
+        <v>4.9673951157467409</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0.77083999999999997</v>
+      </c>
+      <c r="M38" s="14">
         <f t="shared" si="4"/>
-        <v>24.049999999999997</v>
-      </c>
-      <c r="J38" s="17">
+        <v>6.6808922733641216</v>
+      </c>
+      <c r="N38" s="17">
+        <v>1.8441460000000001</v>
+      </c>
+      <c r="O38" s="14">
         <f t="shared" si="5"/>
-        <v>2.5184275184275182</v>
-      </c>
-      <c r="K38" s="14">
+        <v>4.9470584216217155</v>
+      </c>
+      <c r="P38" s="18">
+        <v>0.793458</v>
+      </c>
+      <c r="Q38" s="14">
         <f t="shared" si="6"/>
-        <v>32.560000000000002</v>
-      </c>
-      <c r="L38" s="18">
-        <f t="shared" si="7"/>
-        <v>0.49140049140049141</v>
-      </c>
-      <c r="M38" s="14">
-        <f t="shared" si="8"/>
-        <v>26.454999999999998</v>
-      </c>
-      <c r="N38" s="17">
-        <f t="shared" si="9"/>
-        <v>2.9160739687055477</v>
-      </c>
-      <c r="O38" s="14">
-        <f t="shared" si="10"/>
-        <v>28.120000000000001</v>
-      </c>
-      <c r="P38" s="18">
-        <f t="shared" si="11"/>
-        <v>0.56899004267425324</v>
-      </c>
-      <c r="Q38" s="14">
-        <f t="shared" si="12"/>
-        <v>22.8475</v>
-      </c>
+        <v>6.4904493999682398</v>
+      </c>
+      <c r="S38">
+        <v>37</v>
+      </c>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38">
+        <v>9.1230980000000006</v>
+      </c>
+      <c r="Z38">
+        <v>1.9142250000000001</v>
+      </c>
+      <c r="AA38">
+        <v>1.8365959999999999</v>
+      </c>
+      <c r="AB38">
+        <v>1.8441460000000001</v>
+      </c>
+      <c r="AC38"/>
+      <c r="AD38">
+        <v>37</v>
+      </c>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
     </row>
     <row r="39" ht="12.6" customHeight="1">
       <c r="B39" s="19">
@@ -6366,59 +7908,100 @@
         <v>38</v>
       </c>
       <c r="D39" s="15">
-        <v>82</v>
+        <v>9.0302589999999991</v>
       </c>
       <c r="E39" s="16">
-        <v>13</v>
+        <v>5.1602240000000004</v>
       </c>
       <c r="F39" s="17">
+        <v>1.883399</v>
+      </c>
+      <c r="G39" s="20">
         <f t="shared" si="1"/>
-        <v>2.6973684210526314</v>
-      </c>
-      <c r="G39" s="20">
+        <v>4.7946606109486085</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0.877305</v>
+      </c>
+      <c r="I39" s="20">
         <f t="shared" si="2"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="H39" s="18">
+        <v>5.8819042408284465</v>
+      </c>
+      <c r="J39" s="17">
+        <v>1.922091</v>
+      </c>
+      <c r="K39" s="14">
         <f t="shared" si="3"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="I39" s="20">
+        <v>4.6981433241194095</v>
+      </c>
+      <c r="L39" s="18">
+        <v>0.82632700000000003</v>
+      </c>
+      <c r="M39" s="14">
         <f t="shared" si="4"/>
-        <v>24.700000000000003</v>
-      </c>
-      <c r="J39" s="17">
+        <v>6.2447723479929858</v>
+      </c>
+      <c r="N39" s="17">
+        <v>1.860527</v>
+      </c>
+      <c r="O39" s="14">
         <f t="shared" si="5"/>
-        <v>2.4521531100478464</v>
-      </c>
-      <c r="K39" s="14">
+        <v>4.8536027695378774</v>
+      </c>
+      <c r="P39" s="18">
+        <v>0.80393899999999996</v>
+      </c>
+      <c r="Q39" s="14">
         <f t="shared" si="6"/>
-        <v>33.440000000000005</v>
-      </c>
-      <c r="L39" s="18">
-        <f t="shared" si="7"/>
-        <v>0.47846889952153104</v>
-      </c>
-      <c r="M39" s="14">
-        <f t="shared" si="8"/>
-        <v>27.170000000000002</v>
-      </c>
-      <c r="N39" s="17">
-        <f t="shared" si="9"/>
-        <v>2.8393351800554014</v>
-      </c>
-      <c r="O39" s="14">
-        <f t="shared" si="10"/>
-        <v>28.880000000000003</v>
-      </c>
-      <c r="P39" s="18">
-        <f t="shared" si="11"/>
-        <v>0.554016620498615</v>
-      </c>
-      <c r="Q39" s="14">
-        <f t="shared" si="12"/>
-        <v>23.465</v>
-      </c>
+        <v>6.4186760438291968</v>
+      </c>
+      <c r="S39">
+        <v>38</v>
+      </c>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39">
+        <v>9.0302589999999991</v>
+      </c>
+      <c r="Z39">
+        <v>1.883399</v>
+      </c>
+      <c r="AA39">
+        <v>1.922091</v>
+      </c>
+      <c r="AB39">
+        <v>1.860527</v>
+      </c>
+      <c r="AC39"/>
+      <c r="AD39">
+        <v>38</v>
+      </c>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
     </row>
     <row r="40" ht="12.6" customHeight="1">
       <c r="B40" s="19">
@@ -6429,59 +8012,100 @@
         <v>39</v>
       </c>
       <c r="D40" s="15">
-        <v>82</v>
+        <v>9.0360410000000009</v>
       </c>
       <c r="E40" s="16">
-        <v>13</v>
+        <v>5.1497489999999999</v>
       </c>
       <c r="F40" s="17">
+        <v>1.8948940000000001</v>
+      </c>
+      <c r="G40" s="20">
         <f t="shared" si="1"/>
-        <v>2.6282051282051282</v>
-      </c>
-      <c r="G40" s="20">
+        <v>4.7686261078456109</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0.83004800000000001</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="2"/>
-        <v>31.199999999999999</v>
-      </c>
-      <c r="H40" s="18">
+        <v>6.2041580727861518</v>
+      </c>
+      <c r="J40" s="17">
+        <v>1.8515459999999999</v>
+      </c>
+      <c r="K40" s="14">
         <f t="shared" si="3"/>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="I40" s="20">
+        <v>4.8802681650901469</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0.812415</v>
+      </c>
+      <c r="M40" s="14">
         <f t="shared" si="4"/>
-        <v>25.350000000000001</v>
-      </c>
-      <c r="J40" s="17">
+        <v>6.338815753032625</v>
+      </c>
+      <c r="N40" s="17">
+        <v>2.0248940000000002</v>
+      </c>
+      <c r="O40" s="14">
         <f t="shared" si="5"/>
-        <v>2.3892773892773889</v>
-      </c>
-      <c r="K40" s="14">
+        <v>4.4624760604752645</v>
+      </c>
+      <c r="P40" s="18">
+        <v>0.84070299999999998</v>
+      </c>
+      <c r="Q40" s="14">
         <f t="shared" si="6"/>
-        <v>34.320000000000007</v>
-      </c>
-      <c r="L40" s="18">
-        <f t="shared" si="7"/>
-        <v>0.46620046620046612</v>
-      </c>
-      <c r="M40" s="14">
-        <f t="shared" si="8"/>
-        <v>27.885000000000005</v>
-      </c>
-      <c r="N40" s="17">
-        <f t="shared" si="9"/>
-        <v>2.7665317139001351</v>
-      </c>
-      <c r="O40" s="14">
-        <f t="shared" si="10"/>
-        <v>29.639999999999997</v>
-      </c>
-      <c r="P40" s="18">
-        <f t="shared" si="11"/>
-        <v>0.53981106612685559</v>
-      </c>
-      <c r="Q40" s="14">
-        <f t="shared" si="12"/>
-        <v>24.0825</v>
-      </c>
+        <v>6.125527088638913</v>
+      </c>
+      <c r="S40">
+        <v>39</v>
+      </c>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40">
+        <v>9.0360410000000009</v>
+      </c>
+      <c r="Z40">
+        <v>1.8948940000000001</v>
+      </c>
+      <c r="AA40">
+        <v>1.8515459999999999</v>
+      </c>
+      <c r="AB40">
+        <v>2.0248940000000002</v>
+      </c>
+      <c r="AC40"/>
+      <c r="AD40">
+        <v>39</v>
+      </c>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
     </row>
     <row r="41" ht="12.6" customHeight="1">
       <c r="B41" s="19">
@@ -6492,58 +8116,673 @@
         <v>40</v>
       </c>
       <c r="D41" s="15">
-        <v>82</v>
+        <v>9.049671</v>
       </c>
       <c r="E41" s="16">
-        <v>13</v>
+        <v>5.1568459999999998</v>
       </c>
       <c r="F41" s="17">
+        <v>1.777047</v>
+      </c>
+      <c r="G41" s="20">
         <f t="shared" si="1"/>
-        <v>2.5624999999999996</v>
-      </c>
-      <c r="G41" s="20">
+        <v>5.0925332869642723</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0.73392100000000005</v>
+      </c>
+      <c r="I41" s="20">
         <f t="shared" si="2"/>
-        <v>32.000000000000007</v>
-      </c>
-      <c r="H41" s="18">
+        <v>7.0264320001744052</v>
+      </c>
+      <c r="J41" s="17">
+        <v>1.7657989999999999</v>
+      </c>
+      <c r="K41" s="14">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="20">
+        <v>5.1249723213117688</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0.82269199999999998</v>
+      </c>
+      <c r="M41" s="14">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="J41" s="17">
+        <v>6.2682583518497808</v>
+      </c>
+      <c r="N41" s="17">
+        <v>1.861097</v>
+      </c>
+      <c r="O41" s="14">
         <f t="shared" si="5"/>
-        <v>2.3295454545454541</v>
-      </c>
-      <c r="K41" s="14">
+        <v>4.8625466593089985</v>
+      </c>
+      <c r="P41" s="18">
+        <v>0.85029100000000002</v>
+      </c>
+      <c r="Q41" s="14">
         <f t="shared" si="6"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="L41" s="18">
-        <f t="shared" si="7"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="M41" s="14">
-        <f t="shared" si="8"/>
-        <v>28.600000000000001</v>
-      </c>
-      <c r="N41" s="17">
-        <f t="shared" si="9"/>
-        <v>2.6973684210526314</v>
-      </c>
-      <c r="O41" s="14">
-        <f t="shared" si="10"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="P41" s="18">
-        <f t="shared" si="11"/>
-        <v>0.52631578947368418</v>
-      </c>
-      <c r="Q41" s="14">
-        <f t="shared" si="12"/>
-        <v>24.700000000000003</v>
+        <v>6.0648013444808893</v>
+      </c>
+      <c r="S41">
+        <v>40</v>
+      </c>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41">
+        <v>9.049671</v>
+      </c>
+      <c r="Z41">
+        <v>1.777047</v>
+      </c>
+      <c r="AA41">
+        <v>1.7657989999999999</v>
+      </c>
+      <c r="AB41">
+        <v>1.861097</v>
+      </c>
+      <c r="AC41"/>
+      <c r="AD41">
+        <v>40</v>
+      </c>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1">
+      <c r="Y43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" ht="12.6" customHeight="1">
+      <c r="Y44">
+        <v>5.1441999999999997</v>
+      </c>
+      <c r="Z44">
+        <v>5.1789699999999996</v>
+      </c>
+      <c r="AA44">
+        <v>5.1442059999999996</v>
+      </c>
+      <c r="AB44">
+        <v>5.1498780000000002</v>
+      </c>
+    </row>
+    <row r="45" ht="12.6" customHeight="1">
+      <c r="Y45">
+        <v>5.1458360000000001</v>
+      </c>
+      <c r="Z45">
+        <v>3.7455759999999998</v>
+      </c>
+      <c r="AA45">
+        <v>3.9741070000000001</v>
+      </c>
+      <c r="AB45">
+        <v>3.7923640000000001</v>
+      </c>
+    </row>
+    <row r="46" ht="12.6" customHeight="1">
+      <c r="Y46">
+        <v>5.1648829999999997</v>
+      </c>
+      <c r="Z46">
+        <v>2.8672309999999999</v>
+      </c>
+      <c r="AA46">
+        <v>2.749012</v>
+      </c>
+      <c r="AB46">
+        <v>2.9318960000000001</v>
+      </c>
+    </row>
+    <row r="47" ht="12.6" customHeight="1">
+      <c r="Y47">
+        <v>5.1693870000000004</v>
+      </c>
+      <c r="Z47">
+        <v>2.0777060000000001</v>
+      </c>
+      <c r="AA47">
+        <v>1.744119</v>
+      </c>
+      <c r="AB47">
+        <v>1.754435</v>
+      </c>
+    </row>
+    <row r="48" ht="12.6" customHeight="1">
+      <c r="Y48">
+        <v>5.165197</v>
+      </c>
+      <c r="Z48">
+        <v>1.7868740000000001</v>
+      </c>
+      <c r="AA48">
+        <v>1.8022180000000001</v>
+      </c>
+      <c r="AB48">
+        <v>1.576608</v>
+      </c>
+    </row>
+    <row r="49" ht="12.6" customHeight="1">
+      <c r="Y49">
+        <v>5.2065789999999996</v>
+      </c>
+      <c r="Z49">
+        <v>1.6478139999999999</v>
+      </c>
+      <c r="AA49">
+        <v>1.524235</v>
+      </c>
+      <c r="AB49">
+        <v>1.5168569999999999</v>
+      </c>
+    </row>
+    <row r="50" ht="12.6" customHeight="1">
+      <c r="Y50">
+        <v>5.1710349999999998</v>
+      </c>
+      <c r="Z50">
+        <v>1.594573</v>
+      </c>
+      <c r="AA50">
+        <v>1.4419090000000001</v>
+      </c>
+      <c r="AB50">
+        <v>1.5373330000000001</v>
+      </c>
+    </row>
+    <row r="51" ht="12.6" customHeight="1">
+      <c r="Y51">
+        <v>5.2043569999999999</v>
+      </c>
+      <c r="Z51">
+        <v>1.382952</v>
+      </c>
+      <c r="AA51">
+        <v>1.2122809999999999</v>
+      </c>
+      <c r="AB51">
+        <v>1.2373000000000001</v>
+      </c>
+    </row>
+    <row r="52" ht="12.6" customHeight="1">
+      <c r="Y52">
+        <v>5.1580440000000003</v>
+      </c>
+      <c r="Z52">
+        <v>1.489549</v>
+      </c>
+      <c r="AA52">
+        <v>1.2579389999999999</v>
+      </c>
+      <c r="AB52">
+        <v>1.1357649999999999</v>
+      </c>
+    </row>
+    <row r="53" ht="12.6" customHeight="1">
+      <c r="Y53">
+        <v>5.1502119999999998</v>
+      </c>
+      <c r="Z53">
+        <v>1.2108719999999999</v>
+      </c>
+      <c r="AA53">
+        <v>1.0838030000000001</v>
+      </c>
+      <c r="AB53">
+        <v>0.99947900000000001</v>
+      </c>
+    </row>
+    <row r="54" ht="12.6" customHeight="1">
+      <c r="Y54">
+        <v>5.1864109999999997</v>
+      </c>
+      <c r="Z54">
+        <v>1.305712</v>
+      </c>
+      <c r="AA54">
+        <v>1.077814</v>
+      </c>
+      <c r="AB54">
+        <v>1.121469</v>
+      </c>
+    </row>
+    <row r="55" ht="12.6" customHeight="1">
+      <c r="Y55">
+        <v>5.2520179999999996</v>
+      </c>
+      <c r="Z55">
+        <v>1.1862429999999999</v>
+      </c>
+      <c r="AA55">
+        <v>1.1593640000000001</v>
+      </c>
+      <c r="AB55">
+        <v>1.1430340000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="12.6" customHeight="1">
+      <c r="Y56">
+        <v>5.1976240000000002</v>
+      </c>
+      <c r="Z56">
+        <v>1.269903</v>
+      </c>
+      <c r="AA56">
+        <v>1.105226</v>
+      </c>
+      <c r="AB56">
+        <v>1.032278</v>
+      </c>
+    </row>
+    <row r="57" ht="12.6" customHeight="1">
+      <c r="Y57">
+        <v>5.1791</v>
+      </c>
+      <c r="Z57">
+        <v>1.1715120000000001</v>
+      </c>
+      <c r="AA57">
+        <v>0.92144800000000004</v>
+      </c>
+      <c r="AB57">
+        <v>0.96224500000000002</v>
+      </c>
+    </row>
+    <row r="58" ht="12.6" customHeight="1">
+      <c r="Y58">
+        <v>5.2038880000000001</v>
+      </c>
+      <c r="Z58">
+        <v>1.0766629999999999</v>
+      </c>
+      <c r="AA58">
+        <v>1.082937</v>
+      </c>
+      <c r="AB58">
+        <v>0.98214000000000001</v>
+      </c>
+    </row>
+    <row r="59" ht="12.6" customHeight="1">
+      <c r="Y59">
+        <v>5.3014609999999998</v>
+      </c>
+      <c r="Z59">
+        <v>1.0805670000000001</v>
+      </c>
+      <c r="AA59">
+        <v>1.2026669999999999</v>
+      </c>
+      <c r="AB59">
+        <v>1.090214</v>
+      </c>
+    </row>
+    <row r="60" ht="12.6" customHeight="1">
+      <c r="Y60">
+        <v>5.2379730000000002</v>
+      </c>
+      <c r="Z60">
+        <v>1.1750910000000001</v>
+      </c>
+      <c r="AA60">
+        <v>1.111243</v>
+      </c>
+      <c r="AB60">
+        <v>1.130538</v>
+      </c>
+    </row>
+    <row r="61" ht="12.6" customHeight="1">
+      <c r="Y61">
+        <v>5.3156140000000001</v>
+      </c>
+      <c r="Z61">
+        <v>0.93783899999999998</v>
+      </c>
+      <c r="AA61">
+        <v>0.84699500000000005</v>
+      </c>
+      <c r="AB61">
+        <v>0.86462499999999998</v>
+      </c>
+    </row>
+    <row r="62" ht="12.6" customHeight="1">
+      <c r="Y62">
+        <v>5.1836609999999999</v>
+      </c>
+      <c r="Z62">
+        <v>1.050929</v>
+      </c>
+      <c r="AA62">
+        <v>1.1315500000000001</v>
+      </c>
+      <c r="AB62">
+        <v>0.98899700000000001</v>
+      </c>
+    </row>
+    <row r="63" ht="12.6" customHeight="1">
+      <c r="Y63">
+        <v>5.2072599999999998</v>
+      </c>
+      <c r="Z63">
+        <v>0.92454099999999995</v>
+      </c>
+      <c r="AA63">
+        <v>0.89883299999999999</v>
+      </c>
+      <c r="AB63">
+        <v>0.78692300000000004</v>
+      </c>
+    </row>
+    <row r="64" ht="12.6" customHeight="1">
+      <c r="Y64">
+        <v>5.14879</v>
+      </c>
+      <c r="Z64">
+        <v>1.056746</v>
+      </c>
+      <c r="AA64">
+        <v>1.1015509999999999</v>
+      </c>
+      <c r="AB64">
+        <v>1.0251939999999999</v>
+      </c>
+    </row>
+    <row r="65" ht="12.6" customHeight="1">
+      <c r="Y65">
+        <v>5.1472189999999998</v>
+      </c>
+      <c r="Z65">
+        <v>0.92527199999999998</v>
+      </c>
+      <c r="AA65">
+        <v>0.85130499999999998</v>
+      </c>
+      <c r="AB65">
+        <v>0.83091499999999996</v>
+      </c>
+    </row>
+    <row r="66" ht="12.6" customHeight="1">
+      <c r="Y66">
+        <v>5.1490260000000001</v>
+      </c>
+      <c r="Z66">
+        <v>1.0038039999999999</v>
+      </c>
+      <c r="AA66">
+        <v>0.93955</v>
+      </c>
+      <c r="AB66">
+        <v>0.96593200000000001</v>
+      </c>
+    </row>
+    <row r="67" ht="12.6" customHeight="1">
+      <c r="Y67">
+        <v>5.1520849999999996</v>
+      </c>
+      <c r="Z67">
+        <v>0.90304499999999999</v>
+      </c>
+      <c r="AA67">
+        <v>1.104884</v>
+      </c>
+      <c r="AB67">
+        <v>0.91244499999999995</v>
+      </c>
+    </row>
+    <row r="68" ht="12.6" customHeight="1">
+      <c r="Y68">
+        <v>5.2023650000000004</v>
+      </c>
+      <c r="Z68">
+        <v>0.88066999999999995</v>
+      </c>
+      <c r="AA68">
+        <v>1.0651090000000001</v>
+      </c>
+      <c r="AB68">
+        <v>0.82561899999999999</v>
+      </c>
+    </row>
+    <row r="69" ht="12.6" customHeight="1">
+      <c r="Y69">
+        <v>5.2500229999999997</v>
+      </c>
+      <c r="Z69">
+        <v>0.97121900000000005</v>
+      </c>
+      <c r="AA69">
+        <v>1.008175</v>
+      </c>
+      <c r="AB69">
+        <v>0.88051400000000002</v>
+      </c>
+    </row>
+    <row r="70" ht="12.6" customHeight="1">
+      <c r="Y70">
+        <v>5.1488880000000004</v>
+      </c>
+      <c r="Z70">
+        <v>0.97863</v>
+      </c>
+      <c r="AA70">
+        <v>0.89539400000000002</v>
+      </c>
+      <c r="AB70">
+        <v>0.89095500000000005</v>
+      </c>
+    </row>
+    <row r="71" ht="12.6" customHeight="1">
+      <c r="Y71">
+        <v>5.1498059999999999</v>
+      </c>
+      <c r="Z71">
+        <v>0.88937299999999997</v>
+      </c>
+      <c r="AA71">
+        <v>0.78386599999999995</v>
+      </c>
+      <c r="AB71">
+        <v>0.74315200000000003</v>
+      </c>
+    </row>
+    <row r="72" ht="12.6" customHeight="1">
+      <c r="Y72">
+        <v>5.2572530000000004</v>
+      </c>
+      <c r="Z72">
+        <v>0.93517799999999995</v>
+      </c>
+      <c r="AA72">
+        <v>0.87127299999999996</v>
+      </c>
+      <c r="AB72">
+        <v>0.83334299999999994</v>
+      </c>
+    </row>
+    <row r="73" ht="12.6" customHeight="1">
+      <c r="Y73">
+        <v>5.1706539999999999</v>
+      </c>
+      <c r="Z73">
+        <v>0.93514799999999998</v>
+      </c>
+      <c r="AA73">
+        <v>0.81138399999999999</v>
+      </c>
+      <c r="AB73">
+        <v>0.80386500000000005</v>
+      </c>
+    </row>
+    <row r="74" ht="12.6" customHeight="1">
+      <c r="Y74">
+        <v>5.184196</v>
+      </c>
+      <c r="Z74">
+        <v>0.94480799999999998</v>
+      </c>
+      <c r="AA74">
+        <v>1.0077970000000001</v>
+      </c>
+      <c r="AB74">
+        <v>0.86795900000000004</v>
+      </c>
+    </row>
+    <row r="75" ht="12.6" customHeight="1">
+      <c r="Y75">
+        <v>5.1580380000000003</v>
+      </c>
+      <c r="Z75">
+        <v>0.96315499999999998</v>
+      </c>
+      <c r="AA75">
+        <v>0.84519100000000003</v>
+      </c>
+      <c r="AB75">
+        <v>0.82819799999999999</v>
+      </c>
+    </row>
+    <row r="76" ht="12.6" customHeight="1">
+      <c r="Y76">
+        <v>5.177467</v>
+      </c>
+      <c r="Z76">
+        <v>0.81100899999999998</v>
+      </c>
+      <c r="AA76">
+        <v>0.73655300000000001</v>
+      </c>
+      <c r="AB76">
+        <v>0.73116499999999995</v>
+      </c>
+    </row>
+    <row r="77" ht="12.6" customHeight="1">
+      <c r="Y77">
+        <v>5.2072310000000002</v>
+      </c>
+      <c r="Z77">
+        <v>0.92486800000000002</v>
+      </c>
+      <c r="AA77">
+        <v>0.81893800000000005</v>
+      </c>
+      <c r="AB77">
+        <v>0.90980700000000003</v>
+      </c>
+    </row>
+    <row r="78" ht="12.6" customHeight="1">
+      <c r="Y78">
+        <v>5.2139980000000001</v>
+      </c>
+      <c r="Z78">
+        <v>1.041895</v>
+      </c>
+      <c r="AA78">
+        <v>0.87140399999999996</v>
+      </c>
+      <c r="AB78">
+        <v>0.85635700000000003</v>
+      </c>
+    </row>
+    <row r="79" ht="12.6" customHeight="1">
+      <c r="Y79">
+        <v>5.2340989999999996</v>
+      </c>
+      <c r="Z79">
+        <v>0.85207500000000003</v>
+      </c>
+      <c r="AA79">
+        <v>0.87029400000000001</v>
+      </c>
+      <c r="AB79">
+        <v>0.83884899999999996</v>
+      </c>
+    </row>
+    <row r="80" ht="12.6" customHeight="1">
+      <c r="Y80">
+        <v>5.1498989999999996</v>
+      </c>
+      <c r="Z80">
+        <v>0.84437799999999996</v>
+      </c>
+      <c r="AA80">
+        <v>0.77083999999999997</v>
+      </c>
+      <c r="AB80">
+        <v>0.793458</v>
+      </c>
+    </row>
+    <row r="81" ht="12.6" customHeight="1">
+      <c r="Y81">
+        <v>5.1602240000000004</v>
+      </c>
+      <c r="Z81">
+        <v>0.877305</v>
+      </c>
+      <c r="AA81">
+        <v>0.82632700000000003</v>
+      </c>
+      <c r="AB81">
+        <v>0.80393899999999996</v>
+      </c>
+    </row>
+    <row r="82" ht="12.6" customHeight="1">
+      <c r="Y82">
+        <v>5.1497489999999999</v>
+      </c>
+      <c r="Z82">
+        <v>0.83004800000000001</v>
+      </c>
+      <c r="AA82">
+        <v>0.812415</v>
+      </c>
+      <c r="AB82">
+        <v>0.84070299999999998</v>
+      </c>
+    </row>
+    <row r="83" ht="12.6" customHeight="1">
+      <c r="Y83">
+        <v>5.1568459999999998</v>
+      </c>
+      <c r="Z83">
+        <v>0.73392100000000005</v>
+      </c>
+      <c r="AA83">
+        <v>0.82269199999999998</v>
+      </c>
+      <c r="AB83">
+        <v>0.85029100000000002</v>
       </c>
     </row>
   </sheetData>
